--- a/BackTest/2020-01-24 BackTest BCD.xlsx
+++ b/BackTest/2020-01-24 BackTest BCD.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>OBV</t>
+          <t>CMO</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -451,7 +451,7 @@
         <v>14593.90057786</v>
       </c>
       <c r="H2" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
@@ -484,7 +484,7 @@
         <v>12639.59057786</v>
       </c>
       <c r="H3" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
@@ -517,7 +517,7 @@
         <v>14105.32307786</v>
       </c>
       <c r="H4" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I4" t="inlineStr"/>
       <c r="J4" t="inlineStr"/>
@@ -550,7 +550,7 @@
         <v>14178.42917786</v>
       </c>
       <c r="H5" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I5" t="inlineStr"/>
       <c r="J5" t="inlineStr"/>
@@ -583,7 +583,7 @@
         <v>14178.42917786</v>
       </c>
       <c r="H6" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I6" t="inlineStr"/>
       <c r="J6" t="inlineStr"/>
@@ -616,7 +616,7 @@
         <v>12178.42917786</v>
       </c>
       <c r="H7" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I7" t="inlineStr"/>
       <c r="J7" t="inlineStr"/>
@@ -649,7 +649,7 @@
         <v>12403.02917786</v>
       </c>
       <c r="H8" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I8" t="inlineStr"/>
       <c r="J8" t="inlineStr"/>
@@ -682,7 +682,7 @@
         <v>12403.02917786</v>
       </c>
       <c r="H9" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I9" t="inlineStr"/>
       <c r="J9" t="inlineStr"/>
@@ -715,7 +715,7 @@
         <v>12552.02917786</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I10" t="inlineStr"/>
       <c r="J10" t="inlineStr"/>
@@ -748,7 +748,7 @@
         <v>12552.02917786</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I11" t="inlineStr"/>
       <c r="J11" t="inlineStr"/>
@@ -781,7 +781,7 @@
         <v>12732.53937786</v>
       </c>
       <c r="H12" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I12" t="inlineStr"/>
       <c r="J12" t="inlineStr"/>
@@ -814,7 +814,7 @@
         <v>15465.29027786</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I13" t="inlineStr"/>
       <c r="J13" t="inlineStr"/>
@@ -847,7 +847,7 @@
         <v>15457.43697786</v>
       </c>
       <c r="H14" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I14" t="inlineStr"/>
       <c r="J14" t="inlineStr"/>
@@ -880,7 +880,7 @@
         <v>15756.50297786</v>
       </c>
       <c r="H15" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I15" t="inlineStr"/>
       <c r="J15" t="inlineStr"/>
@@ -913,7 +913,7 @@
         <v>15205.10297786</v>
       </c>
       <c r="H16" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I16" t="inlineStr"/>
       <c r="J16" t="inlineStr"/>
@@ -946,7 +946,7 @@
         <v>14937.63027786</v>
       </c>
       <c r="H17" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I17" t="inlineStr"/>
       <c r="J17" t="inlineStr"/>
@@ -979,7 +979,7 @@
         <v>14675.49487786</v>
       </c>
       <c r="H18" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I18" t="inlineStr"/>
       <c r="J18" t="inlineStr"/>
@@ -1012,7 +1012,7 @@
         <v>11934.89067786</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I19" t="inlineStr"/>
       <c r="J19" t="inlineStr"/>
@@ -1045,7 +1045,7 @@
         <v>12036.49307786</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I20" t="inlineStr"/>
       <c r="J20" t="inlineStr"/>
@@ -1078,7 +1078,7 @@
         <v>12061.74327786</v>
       </c>
       <c r="H21" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I21" t="inlineStr"/>
       <c r="J21" t="inlineStr"/>
@@ -1111,7 +1111,7 @@
         <v>12051.74327786</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I22" t="inlineStr"/>
       <c r="J22" t="inlineStr"/>
@@ -1144,7 +1144,7 @@
         <v>12276.81077786</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I23" t="inlineStr"/>
       <c r="J23" t="inlineStr"/>
@@ -1177,7 +1177,7 @@
         <v>12203.70467786</v>
       </c>
       <c r="H24" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I24" t="inlineStr"/>
       <c r="J24" t="inlineStr"/>
@@ -1210,7 +1210,7 @@
         <v>12254.30457786</v>
       </c>
       <c r="H25" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I25" t="inlineStr"/>
       <c r="J25" t="inlineStr"/>
@@ -1243,7 +1243,7 @@
         <v>12300.39407786</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I26" t="inlineStr"/>
       <c r="J26" t="inlineStr"/>
@@ -1276,7 +1276,7 @@
         <v>12113.52867786</v>
       </c>
       <c r="H27" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I27" t="inlineStr"/>
       <c r="J27" t="inlineStr"/>
@@ -1309,7 +1309,7 @@
         <v>11859.67047786</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I28" t="inlineStr"/>
       <c r="J28" t="inlineStr"/>
@@ -1342,7 +1342,7 @@
         <v>11968.67047786</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I29" t="inlineStr"/>
       <c r="J29" t="inlineStr"/>
@@ -1375,7 +1375,7 @@
         <v>11968.67047786</v>
       </c>
       <c r="H30" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I30" t="inlineStr"/>
       <c r="J30" t="inlineStr"/>
@@ -1408,7 +1408,7 @@
         <v>11968.67047786</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I31" t="inlineStr"/>
       <c r="J31" t="inlineStr"/>
@@ -1771,7 +1771,7 @@
         <v>8007.10477786</v>
       </c>
       <c r="H42" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I42" t="inlineStr"/>
       <c r="J42" t="inlineStr"/>
@@ -2002,7 +2002,7 @@
         <v>10333.13292317</v>
       </c>
       <c r="H49" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I49" t="inlineStr"/>
       <c r="J49" t="inlineStr"/>
@@ -2134,7 +2134,7 @@
         <v>9891.925828930001</v>
       </c>
       <c r="H53" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I53" t="inlineStr"/>
       <c r="J53" t="inlineStr"/>
@@ -2167,7 +2167,7 @@
         <v>7871.925828930001</v>
       </c>
       <c r="H54" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I54" t="inlineStr"/>
       <c r="J54" t="inlineStr"/>
@@ -2200,7 +2200,7 @@
         <v>7871.925828930001</v>
       </c>
       <c r="H55" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I55" t="inlineStr"/>
       <c r="J55" t="inlineStr"/>
@@ -2233,7 +2233,7 @@
         <v>8091.577328930001</v>
       </c>
       <c r="H56" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I56" t="inlineStr"/>
       <c r="J56" t="inlineStr"/>
@@ -2266,7 +2266,7 @@
         <v>5591.577328930001</v>
       </c>
       <c r="H57" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I57" t="inlineStr"/>
       <c r="J57" t="inlineStr"/>
@@ -2299,7 +2299,7 @@
         <v>5893.649877940002</v>
       </c>
       <c r="H58" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I58" t="inlineStr"/>
       <c r="J58" t="inlineStr"/>
@@ -2332,7 +2332,7 @@
         <v>5428.849877940002</v>
       </c>
       <c r="H59" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I59" t="inlineStr"/>
       <c r="J59" t="inlineStr"/>
@@ -2365,7 +2365,7 @@
         <v>5428.849877940002</v>
       </c>
       <c r="H60" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I60" t="inlineStr"/>
       <c r="J60" t="inlineStr"/>
@@ -2398,7 +2398,7 @@
         <v>5428.849877940002</v>
       </c>
       <c r="H61" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I61" t="inlineStr"/>
       <c r="J61" t="inlineStr"/>
@@ -2431,7 +2431,7 @@
         <v>5428.849877940002</v>
       </c>
       <c r="H62" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I62" t="inlineStr"/>
       <c r="J62" t="inlineStr"/>
@@ -2464,7 +2464,7 @@
         <v>5428.849877940002</v>
       </c>
       <c r="H63" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I63" t="inlineStr"/>
       <c r="J63" t="inlineStr"/>
@@ -2497,7 +2497,7 @@
         <v>5403.352147230002</v>
       </c>
       <c r="H64" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I64" t="inlineStr"/>
       <c r="J64" t="inlineStr"/>
@@ -2530,7 +2530,7 @@
         <v>4825.378347230002</v>
       </c>
       <c r="H65" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I65" t="inlineStr"/>
       <c r="J65" t="inlineStr"/>
@@ -2563,7 +2563,7 @@
         <v>5470.378347230002</v>
       </c>
       <c r="H66" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I66" t="inlineStr"/>
       <c r="J66" t="inlineStr"/>
@@ -2596,7 +2596,7 @@
         <v>7216.008606390002</v>
       </c>
       <c r="H67" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I67" t="inlineStr"/>
       <c r="J67" t="inlineStr"/>
@@ -2629,7 +2629,7 @@
         <v>7166.008606390002</v>
       </c>
       <c r="H68" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I68" t="inlineStr"/>
       <c r="J68" t="inlineStr"/>
@@ -2662,7 +2662,7 @@
         <v>7271.183206390002</v>
       </c>
       <c r="H69" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I69" t="inlineStr"/>
       <c r="J69" t="inlineStr"/>
@@ -2695,7 +2695,7 @@
         <v>7646.752106390002</v>
       </c>
       <c r="H70" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I70" t="inlineStr"/>
       <c r="J70" t="inlineStr"/>
@@ -2728,7 +2728,7 @@
         <v>7646.752106390002</v>
       </c>
       <c r="H71" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I71" t="inlineStr"/>
       <c r="J71" t="inlineStr"/>
@@ -2761,7 +2761,7 @@
         <v>7970.188006390003</v>
       </c>
       <c r="H72" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I72" t="inlineStr"/>
       <c r="J72" t="inlineStr"/>
@@ -2794,7 +2794,7 @@
         <v>7940.095406390003</v>
       </c>
       <c r="H73" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I73" t="inlineStr"/>
       <c r="J73" t="inlineStr"/>
@@ -2827,7 +2827,7 @@
         <v>7569.095406390003</v>
       </c>
       <c r="H74" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I74" t="inlineStr"/>
       <c r="J74" t="inlineStr"/>
@@ -2860,7 +2860,7 @@
         <v>7409.095406390003</v>
       </c>
       <c r="H75" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I75" t="inlineStr"/>
       <c r="J75" t="inlineStr"/>
@@ -2893,7 +2893,7 @@
         <v>7409.095406390003</v>
       </c>
       <c r="H76" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I76" t="inlineStr"/>
       <c r="J76" t="inlineStr"/>
@@ -2926,7 +2926,7 @@
         <v>8214.226206390003</v>
       </c>
       <c r="H77" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I77" t="inlineStr"/>
       <c r="J77" t="inlineStr"/>
@@ -2959,7 +2959,7 @@
         <v>8947.116506390004</v>
       </c>
       <c r="H78" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I78" t="inlineStr"/>
       <c r="J78" t="inlineStr"/>
@@ -2992,7 +2992,7 @@
         <v>8888.788906390004</v>
       </c>
       <c r="H79" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I79" t="inlineStr"/>
       <c r="J79" t="inlineStr"/>
@@ -3025,7 +3025,7 @@
         <v>8586.403506390005</v>
       </c>
       <c r="H80" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I80" t="inlineStr"/>
       <c r="J80" t="inlineStr"/>
@@ -3058,7 +3058,7 @@
         <v>9139.848006390004</v>
       </c>
       <c r="H81" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I81" t="inlineStr"/>
       <c r="J81" t="inlineStr"/>
@@ -3157,7 +3157,7 @@
         <v>9825.797306390004</v>
       </c>
       <c r="H84" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I84" t="inlineStr"/>
       <c r="J84" t="inlineStr"/>
@@ -3190,7 +3190,7 @@
         <v>9825.797306390004</v>
       </c>
       <c r="H85" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I85" t="inlineStr"/>
       <c r="J85" t="inlineStr"/>
@@ -3223,7 +3223,7 @@
         <v>9905.911306390004</v>
       </c>
       <c r="H86" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I86" t="inlineStr"/>
       <c r="J86" t="inlineStr"/>
@@ -3256,7 +3256,7 @@
         <v>9857.911306390004</v>
       </c>
       <c r="H87" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I87" t="inlineStr"/>
       <c r="J87" t="inlineStr"/>
@@ -3289,7 +3289,7 @@
         <v>10299.10430639</v>
       </c>
       <c r="H88" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I88" t="inlineStr"/>
       <c r="J88" t="inlineStr"/>
@@ -3322,7 +3322,7 @@
         <v>10447.96610639</v>
       </c>
       <c r="H89" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I89" t="inlineStr"/>
       <c r="J89" t="inlineStr"/>
@@ -3355,7 +3355,7 @@
         <v>10447.96610639</v>
       </c>
       <c r="H90" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I90" t="inlineStr"/>
       <c r="J90" t="inlineStr"/>
@@ -3388,7 +3388,7 @@
         <v>7665.268606390004</v>
       </c>
       <c r="H91" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I91" t="inlineStr"/>
       <c r="J91" t="inlineStr"/>
@@ -3421,7 +3421,7 @@
         <v>7665.268606390004</v>
       </c>
       <c r="H92" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I92" t="inlineStr"/>
       <c r="J92" t="inlineStr"/>
@@ -3454,7 +3454,7 @@
         <v>7665.268606390004</v>
       </c>
       <c r="H93" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I93" t="inlineStr"/>
       <c r="J93" t="inlineStr"/>
@@ -3487,7 +3487,7 @@
         <v>7665.268606390004</v>
       </c>
       <c r="H94" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I94" t="inlineStr"/>
       <c r="J94" t="inlineStr"/>
@@ -3520,7 +3520,7 @@
         <v>7662.869006390004</v>
       </c>
       <c r="H95" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I95" t="inlineStr"/>
       <c r="J95" t="inlineStr"/>
@@ -3553,7 +3553,7 @@
         <v>7669.518714600004</v>
       </c>
       <c r="H96" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I96" t="inlineStr"/>
       <c r="J96" t="inlineStr"/>
@@ -3586,7 +3586,7 @@
         <v>10905.85240639</v>
       </c>
       <c r="H97" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I97" t="inlineStr"/>
       <c r="J97" t="inlineStr"/>
@@ -3619,7 +3619,7 @@
         <v>11494.59880639</v>
       </c>
       <c r="H98" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I98" t="inlineStr"/>
       <c r="J98" t="inlineStr"/>
@@ -3652,7 +3652,7 @@
         <v>11494.59880639</v>
       </c>
       <c r="H99" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I99" t="inlineStr"/>
       <c r="J99" t="inlineStr"/>
@@ -3685,7 +3685,7 @@
         <v>11494.59880639</v>
       </c>
       <c r="H100" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I100" t="inlineStr"/>
       <c r="J100" t="inlineStr"/>
@@ -3718,7 +3718,7 @@
         <v>9474.041606390005</v>
       </c>
       <c r="H101" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I101" t="inlineStr"/>
       <c r="J101" t="inlineStr"/>
@@ -3751,7 +3751,7 @@
         <v>7143.495906390004</v>
       </c>
       <c r="H102" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I102" t="inlineStr"/>
       <c r="J102" t="inlineStr"/>
@@ -3784,7 +3784,7 @@
         <v>7207.053306390004</v>
       </c>
       <c r="H103" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I103" t="inlineStr"/>
       <c r="J103" t="inlineStr"/>
@@ -3817,7 +3817,7 @@
         <v>6052.941206390004</v>
       </c>
       <c r="H104" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I104" t="inlineStr"/>
       <c r="J104" t="inlineStr"/>
@@ -3850,7 +3850,7 @@
         <v>6197.382906390004</v>
       </c>
       <c r="H105" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I105" t="inlineStr"/>
       <c r="J105" t="inlineStr"/>
@@ -3883,7 +3883,7 @@
         <v>6197.382906390004</v>
       </c>
       <c r="H106" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I106" t="inlineStr"/>
       <c r="J106" t="inlineStr"/>
@@ -3916,7 +3916,7 @@
         <v>6197.382906390004</v>
       </c>
       <c r="H107" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I107" t="inlineStr"/>
       <c r="J107" t="inlineStr"/>
@@ -3949,7 +3949,7 @@
         <v>4197.382906390004</v>
       </c>
       <c r="H108" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I108" t="inlineStr"/>
       <c r="J108" t="inlineStr"/>
@@ -3982,7 +3982,7 @@
         <v>4198.136006390004</v>
       </c>
       <c r="H109" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I109" t="inlineStr"/>
       <c r="J109" t="inlineStr"/>
@@ -4015,7 +4015,7 @@
         <v>4198.136006390004</v>
       </c>
       <c r="H110" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I110" t="inlineStr"/>
       <c r="J110" t="inlineStr"/>
@@ -4048,7 +4048,7 @@
         <v>4107.735406390004</v>
       </c>
       <c r="H111" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I111" t="inlineStr"/>
       <c r="J111" t="inlineStr"/>
@@ -4081,7 +4081,7 @@
         <v>4107.735406390004</v>
       </c>
       <c r="H112" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I112" t="inlineStr"/>
       <c r="J112" t="inlineStr"/>
@@ -4114,7 +4114,7 @@
         <v>4043.612006390004</v>
       </c>
       <c r="H113" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I113" t="inlineStr"/>
       <c r="J113" t="inlineStr"/>
@@ -4147,7 +4147,7 @@
         <v>-936.9621936099961</v>
       </c>
       <c r="H114" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I114" t="inlineStr"/>
       <c r="J114" t="inlineStr"/>
@@ -4180,7 +4180,7 @@
         <v>-907.9621936099961</v>
       </c>
       <c r="H115" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I115" t="inlineStr"/>
       <c r="J115" t="inlineStr"/>
@@ -4213,7 +4213,7 @@
         <v>-988.0761936099962</v>
       </c>
       <c r="H116" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I116" t="inlineStr"/>
       <c r="J116" t="inlineStr"/>
@@ -4246,7 +4246,7 @@
         <v>-988.0761936099962</v>
       </c>
       <c r="H117" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I117" t="inlineStr"/>
       <c r="J117" t="inlineStr"/>
@@ -4279,7 +4279,7 @@
         <v>-986.0761936099962</v>
       </c>
       <c r="H118" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I118" t="inlineStr"/>
       <c r="J118" t="inlineStr"/>
@@ -4312,7 +4312,7 @@
         <v>-1009.285893609996</v>
       </c>
       <c r="H119" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I119" t="inlineStr"/>
       <c r="J119" t="inlineStr"/>
@@ -4345,7 +4345,7 @@
         <v>-2267.396393609996</v>
       </c>
       <c r="H120" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I120" t="inlineStr"/>
       <c r="J120" t="inlineStr"/>
@@ -4378,7 +4378,7 @@
         <v>-2267.396393609996</v>
       </c>
       <c r="H121" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I121" t="inlineStr"/>
       <c r="J121" t="inlineStr"/>
@@ -4411,7 +4411,7 @@
         <v>-2267.396393609996</v>
       </c>
       <c r="H122" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I122" t="inlineStr"/>
       <c r="J122" t="inlineStr"/>
@@ -4444,7 +4444,7 @@
         <v>-2267.396393609996</v>
       </c>
       <c r="H123" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I123" t="inlineStr"/>
       <c r="J123" t="inlineStr"/>
@@ -4477,7 +4477,7 @@
         <v>-2473.907693609996</v>
       </c>
       <c r="H124" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I124" t="inlineStr"/>
       <c r="J124" t="inlineStr"/>
@@ -4510,7 +4510,7 @@
         <v>-8378.735693609997</v>
       </c>
       <c r="H125" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I125" t="inlineStr"/>
       <c r="J125" t="inlineStr"/>
@@ -4543,7 +4543,7 @@
         <v>-10563.73569361</v>
       </c>
       <c r="H126" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I126" t="inlineStr"/>
       <c r="J126" t="inlineStr"/>
@@ -4576,7 +4576,7 @@
         <v>-10563.73569361</v>
       </c>
       <c r="H127" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I127" t="inlineStr"/>
       <c r="J127" t="inlineStr"/>
@@ -4609,7 +4609,7 @@
         <v>-10563.73569361</v>
       </c>
       <c r="H128" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I128" t="inlineStr"/>
       <c r="J128" t="inlineStr"/>
@@ -4642,7 +4642,7 @@
         <v>-10563.73569361</v>
       </c>
       <c r="H129" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I129" t="inlineStr"/>
       <c r="J129" t="inlineStr"/>
@@ -4675,7 +4675,7 @@
         <v>-10563.73569361</v>
       </c>
       <c r="H130" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I130" t="inlineStr"/>
       <c r="J130" t="inlineStr"/>
@@ -4708,7 +4708,7 @@
         <v>-10910.79239361</v>
       </c>
       <c r="H131" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I131" t="inlineStr"/>
       <c r="J131" t="inlineStr"/>
@@ -4741,7 +4741,7 @@
         <v>-10910.79239361</v>
       </c>
       <c r="H132" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I132" t="inlineStr"/>
       <c r="J132" t="inlineStr"/>
@@ -4774,7 +4774,7 @@
         <v>-18238.60039361</v>
       </c>
       <c r="H133" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I133" t="inlineStr"/>
       <c r="J133" t="inlineStr"/>
@@ -4807,7 +4807,7 @@
         <v>-19022.58969361</v>
       </c>
       <c r="H134" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I134" t="inlineStr"/>
       <c r="J134" t="inlineStr"/>
@@ -4840,7 +4840,7 @@
         <v>-19022.58969361</v>
       </c>
       <c r="H135" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I135" t="inlineStr"/>
       <c r="J135" t="inlineStr"/>
@@ -4873,7 +4873,7 @@
         <v>-19022.58969361</v>
       </c>
       <c r="H136" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I136" t="inlineStr"/>
       <c r="J136" t="inlineStr"/>
@@ -4906,7 +4906,7 @@
         <v>-19037.30209361</v>
       </c>
       <c r="H137" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I137" t="inlineStr"/>
       <c r="J137" t="inlineStr"/>
@@ -4939,7 +4939,7 @@
         <v>-19037.30209361</v>
       </c>
       <c r="H138" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I138" t="inlineStr"/>
       <c r="J138" t="inlineStr"/>
@@ -4972,7 +4972,7 @@
         <v>-19037.30199361</v>
       </c>
       <c r="H139" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I139" t="inlineStr"/>
       <c r="J139" t="inlineStr"/>
@@ -5005,7 +5005,7 @@
         <v>-19026.01449361</v>
       </c>
       <c r="H140" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I140" t="inlineStr"/>
       <c r="J140" t="inlineStr"/>
@@ -5038,7 +5038,7 @@
         <v>-27597.28449361</v>
       </c>
       <c r="H141" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I141" t="inlineStr"/>
       <c r="J141" t="inlineStr"/>
@@ -5071,7 +5071,7 @@
         <v>-27216.67259361</v>
       </c>
       <c r="H142" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I142" t="inlineStr"/>
       <c r="J142" t="inlineStr"/>
@@ -5104,7 +5104,7 @@
         <v>-27216.67259361</v>
       </c>
       <c r="H143" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I143" t="inlineStr"/>
       <c r="J143" t="inlineStr"/>
@@ -5137,7 +5137,7 @@
         <v>-27217.67259361</v>
       </c>
       <c r="H144" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I144" t="inlineStr"/>
       <c r="J144" t="inlineStr"/>
@@ -5170,7 +5170,7 @@
         <v>-28441.89589361</v>
       </c>
       <c r="H145" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I145" t="inlineStr"/>
       <c r="J145" t="inlineStr"/>
@@ -5203,7 +5203,7 @@
         <v>-28441.89589361</v>
       </c>
       <c r="H146" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I146" t="inlineStr"/>
       <c r="J146" t="inlineStr"/>
@@ -5236,7 +5236,7 @@
         <v>-26671.43019361</v>
       </c>
       <c r="H147" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I147" t="inlineStr"/>
       <c r="J147" t="inlineStr"/>
@@ -5269,7 +5269,7 @@
         <v>-26671.43019361</v>
       </c>
       <c r="H148" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I148" t="inlineStr"/>
       <c r="J148" t="inlineStr"/>
@@ -5302,7 +5302,7 @@
         <v>-27392.54659361</v>
       </c>
       <c r="H149" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I149" t="inlineStr"/>
       <c r="J149" t="inlineStr"/>
@@ -5335,7 +5335,7 @@
         <v>-28393.54649361</v>
       </c>
       <c r="H150" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I150" t="inlineStr"/>
       <c r="J150" t="inlineStr"/>
@@ -5368,7 +5368,7 @@
         <v>-35819.70979361</v>
       </c>
       <c r="H151" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I151" t="inlineStr"/>
       <c r="J151" t="inlineStr"/>
@@ -5401,7 +5401,7 @@
         <v>-35819.70979361</v>
       </c>
       <c r="H152" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I152" t="inlineStr"/>
       <c r="J152" t="inlineStr"/>
@@ -5434,7 +5434,7 @@
         <v>-35818.00815477</v>
       </c>
       <c r="H153" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I153" t="inlineStr"/>
       <c r="J153" t="inlineStr"/>
@@ -5467,7 +5467,7 @@
         <v>-36837.00815477</v>
       </c>
       <c r="H154" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I154" t="inlineStr"/>
       <c r="J154" t="inlineStr"/>
@@ -5500,7 +5500,7 @@
         <v>-36837.00815477</v>
       </c>
       <c r="H155" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I155" t="inlineStr"/>
       <c r="J155" t="inlineStr"/>
@@ -5533,7 +5533,7 @@
         <v>-37617.00815477</v>
       </c>
       <c r="H156" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I156" t="inlineStr"/>
       <c r="J156" t="inlineStr"/>
@@ -5566,7 +5566,7 @@
         <v>-37617.00815477</v>
       </c>
       <c r="H157" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I157" t="inlineStr"/>
       <c r="J157" t="inlineStr"/>
@@ -5599,7 +5599,7 @@
         <v>-38239.92625477</v>
       </c>
       <c r="H158" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I158" t="inlineStr"/>
       <c r="J158" t="inlineStr"/>
@@ -5632,7 +5632,7 @@
         <v>-38239.92625477</v>
       </c>
       <c r="H159" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I159" t="inlineStr"/>
       <c r="J159" t="inlineStr"/>
@@ -5665,7 +5665,7 @@
         <v>-31637.49025477</v>
       </c>
       <c r="H160" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I160" t="inlineStr"/>
       <c r="J160" t="inlineStr"/>
@@ -5698,7 +5698,7 @@
         <v>-31637.49025477</v>
       </c>
       <c r="H161" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I161" t="inlineStr"/>
       <c r="J161" t="inlineStr"/>
@@ -5731,7 +5731,7 @@
         <v>-31637.49025477</v>
       </c>
       <c r="H162" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I162" t="inlineStr"/>
       <c r="J162" t="inlineStr"/>
@@ -5764,7 +5764,7 @@
         <v>-39584.31965477</v>
       </c>
       <c r="H163" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I163" t="inlineStr"/>
       <c r="J163" t="inlineStr"/>
@@ -5797,7 +5797,7 @@
         <v>-38965.39495477</v>
       </c>
       <c r="H164" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I164" t="inlineStr"/>
       <c r="J164" t="inlineStr"/>
@@ -5830,7 +5830,7 @@
         <v>-39168.39495477</v>
       </c>
       <c r="H165" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I165" t="inlineStr"/>
       <c r="J165" t="inlineStr"/>
@@ -5863,7 +5863,7 @@
         <v>-39168.39495477</v>
       </c>
       <c r="H166" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I166" t="inlineStr"/>
       <c r="J166" t="inlineStr"/>
@@ -5896,7 +5896,7 @@
         <v>-49636.98748328999</v>
       </c>
       <c r="H167" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I167" t="inlineStr"/>
       <c r="J167" t="inlineStr"/>
@@ -5929,7 +5929,7 @@
         <v>-49636.98748328999</v>
       </c>
       <c r="H168" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I168" t="inlineStr"/>
       <c r="J168" t="inlineStr"/>
@@ -5962,7 +5962,7 @@
         <v>-49636.98748328999</v>
       </c>
       <c r="H169" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I169" t="inlineStr"/>
       <c r="J169" t="inlineStr"/>
@@ -5995,7 +5995,7 @@
         <v>-49636.98748328999</v>
       </c>
       <c r="H170" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I170" t="inlineStr"/>
       <c r="J170" t="inlineStr"/>
@@ -6028,7 +6028,7 @@
         <v>-49636.98748328999</v>
       </c>
       <c r="H171" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I171" t="inlineStr"/>
       <c r="J171" t="inlineStr"/>
@@ -6061,7 +6061,7 @@
         <v>-49636.98748328999</v>
       </c>
       <c r="H172" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I172" t="inlineStr"/>
       <c r="J172" t="inlineStr"/>
@@ -6094,7 +6094,7 @@
         <v>-49636.98748328999</v>
       </c>
       <c r="H173" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I173" t="inlineStr"/>
       <c r="J173" t="inlineStr"/>
@@ -6127,7 +6127,7 @@
         <v>-50928.53918328999</v>
       </c>
       <c r="H174" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I174" t="inlineStr"/>
       <c r="J174" t="inlineStr"/>
@@ -6160,7 +6160,7 @@
         <v>-50928.53918328999</v>
       </c>
       <c r="H175" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I175" t="inlineStr"/>
       <c r="J175" t="inlineStr"/>
@@ -6193,7 +6193,7 @@
         <v>-50928.53918328999</v>
       </c>
       <c r="H176" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I176" t="inlineStr"/>
       <c r="J176" t="inlineStr"/>
@@ -6226,7 +6226,7 @@
         <v>-53807.00118328999</v>
       </c>
       <c r="H177" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I177" t="inlineStr"/>
       <c r="J177" t="inlineStr"/>
@@ -6259,7 +6259,7 @@
         <v>-53807.00118328999</v>
       </c>
       <c r="H178" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I178" t="inlineStr"/>
       <c r="J178" t="inlineStr"/>
@@ -6358,7 +6358,7 @@
         <v>-53807.00118328999</v>
       </c>
       <c r="H181" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I181" t="inlineStr"/>
       <c r="J181" t="inlineStr"/>
@@ -6391,7 +6391,7 @@
         <v>-53807.00118328999</v>
       </c>
       <c r="H182" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I182" t="inlineStr"/>
       <c r="J182" t="inlineStr"/>
@@ -6424,7 +6424,7 @@
         <v>-53807.00118328999</v>
       </c>
       <c r="H183" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I183" t="inlineStr"/>
       <c r="J183" t="inlineStr"/>
@@ -6457,7 +6457,7 @@
         <v>-53807.00118328999</v>
       </c>
       <c r="H184" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I184" t="inlineStr"/>
       <c r="J184" t="inlineStr"/>
@@ -6490,7 +6490,7 @@
         <v>-53807.00118328999</v>
       </c>
       <c r="H185" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I185" t="inlineStr"/>
       <c r="J185" t="inlineStr"/>
@@ -6523,7 +6523,7 @@
         <v>-53807.00118328999</v>
       </c>
       <c r="H186" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I186" t="inlineStr"/>
       <c r="J186" t="inlineStr"/>
@@ -6556,7 +6556,7 @@
         <v>-53807.00118328999</v>
       </c>
       <c r="H187" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I187" t="inlineStr"/>
       <c r="J187" t="inlineStr"/>
@@ -6622,7 +6622,7 @@
         <v>-55586.02978328999</v>
       </c>
       <c r="H189" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I189" t="inlineStr"/>
       <c r="J189" t="inlineStr"/>
@@ -6655,7 +6655,7 @@
         <v>-55561.59098328999</v>
       </c>
       <c r="H190" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I190" t="inlineStr"/>
       <c r="J190" t="inlineStr"/>
@@ -6688,7 +6688,7 @@
         <v>-56546.95408328999</v>
       </c>
       <c r="H191" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I191" t="inlineStr"/>
       <c r="J191" t="inlineStr"/>
@@ -6754,7 +6754,7 @@
         <v>-60587.92988328999</v>
       </c>
       <c r="H193" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I193" t="inlineStr"/>
       <c r="J193" t="inlineStr"/>
@@ -6787,7 +6787,7 @@
         <v>-60183.81212813999</v>
       </c>
       <c r="H194" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I194" t="inlineStr"/>
       <c r="J194" t="inlineStr"/>
@@ -6886,7 +6886,7 @@
         <v>-60183.81212813999</v>
       </c>
       <c r="H197" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I197" t="inlineStr"/>
       <c r="J197" t="inlineStr"/>
@@ -8470,7 +8470,7 @@
         <v>-58764.58387639</v>
       </c>
       <c r="H245" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I245" t="inlineStr"/>
       <c r="J245" t="inlineStr"/>
@@ -8602,7 +8602,7 @@
         <v>-58621.81473719999</v>
       </c>
       <c r="H249" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I249" t="inlineStr"/>
       <c r="J249" t="inlineStr"/>
@@ -8734,7 +8734,7 @@
         <v>-61627.4903372</v>
       </c>
       <c r="H253" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I253" t="inlineStr"/>
       <c r="J253" t="inlineStr"/>
@@ -8767,7 +8767,7 @@
         <v>-64319.8463372</v>
       </c>
       <c r="H254" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I254" t="inlineStr"/>
       <c r="J254" t="inlineStr"/>
@@ -8800,7 +8800,7 @@
         <v>-64319.8463372</v>
       </c>
       <c r="H255" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I255" t="inlineStr"/>
       <c r="J255" t="inlineStr"/>
@@ -8833,7 +8833,7 @@
         <v>-65361.8463372</v>
       </c>
       <c r="H256" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I256" t="inlineStr"/>
       <c r="J256" t="inlineStr"/>
@@ -8899,7 +8899,7 @@
         <v>-68009.18933719999</v>
       </c>
       <c r="H258" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I258" t="inlineStr"/>
       <c r="J258" t="inlineStr"/>
@@ -8932,7 +8932,7 @@
         <v>-66416.84623719999</v>
       </c>
       <c r="H259" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I259" t="inlineStr"/>
       <c r="J259" t="inlineStr"/>
@@ -8965,7 +8965,7 @@
         <v>-66416.84623719999</v>
       </c>
       <c r="H260" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I260" t="inlineStr"/>
       <c r="J260" t="inlineStr"/>
@@ -8998,7 +8998,7 @@
         <v>-69659.5369372</v>
       </c>
       <c r="H261" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I261" t="inlineStr"/>
       <c r="J261" t="inlineStr"/>
@@ -9031,7 +9031,7 @@
         <v>-63006.7240372</v>
       </c>
       <c r="H262" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I262" t="inlineStr"/>
       <c r="J262" t="inlineStr"/>
@@ -10087,7 +10087,7 @@
         <v>-77949.68843720001</v>
       </c>
       <c r="H294" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I294" t="inlineStr"/>
       <c r="J294" t="inlineStr"/>
@@ -12496,7 +12496,7 @@
         <v>-96681.29600158993</v>
       </c>
       <c r="H367" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I367" t="inlineStr"/>
       <c r="J367" t="inlineStr"/>
@@ -12529,7 +12529,7 @@
         <v>-96681.29600158993</v>
       </c>
       <c r="H368" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I368" t="inlineStr"/>
       <c r="J368" t="inlineStr"/>
@@ -12562,7 +12562,7 @@
         <v>-96845.29600158993</v>
       </c>
       <c r="H369" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I369" t="inlineStr"/>
       <c r="J369" t="inlineStr"/>
@@ -12595,7 +12595,7 @@
         <v>-98570.73550158992</v>
       </c>
       <c r="H370" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I370" t="inlineStr"/>
       <c r="J370" t="inlineStr"/>
@@ -12628,7 +12628,7 @@
         <v>-97705.59400158993</v>
       </c>
       <c r="H371" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I371" t="inlineStr"/>
       <c r="J371" t="inlineStr"/>
@@ -12661,7 +12661,7 @@
         <v>-96825.59400158993</v>
       </c>
       <c r="H372" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I372" t="inlineStr"/>
       <c r="J372" t="inlineStr"/>
@@ -12694,7 +12694,7 @@
         <v>-95921.16620158992</v>
       </c>
       <c r="H373" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I373" t="inlineStr"/>
       <c r="J373" t="inlineStr"/>
@@ -12727,7 +12727,7 @@
         <v>-95921.16620158992</v>
       </c>
       <c r="H374" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I374" t="inlineStr"/>
       <c r="J374" t="inlineStr"/>
@@ -12760,7 +12760,7 @@
         <v>-95921.16620158992</v>
       </c>
       <c r="H375" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I375" t="inlineStr"/>
       <c r="J375" t="inlineStr"/>
@@ -12826,7 +12826,7 @@
         <v>-96470.77610158992</v>
       </c>
       <c r="H377" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I377" t="inlineStr"/>
       <c r="J377" t="inlineStr"/>
@@ -12859,7 +12859,7 @@
         <v>-96470.77610158992</v>
       </c>
       <c r="H378" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I378" t="inlineStr"/>
       <c r="J378" t="inlineStr"/>
@@ -13453,11 +13453,17 @@
         <v>-106943.7039015899</v>
       </c>
       <c r="H396" t="n">
-        <v>0</v>
-      </c>
-      <c r="I396" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I396" t="n">
+        <v>619.7</v>
+      </c>
       <c r="J396" t="inlineStr"/>
-      <c r="K396" t="inlineStr"/>
+      <c r="K396" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="L396" t="n">
         <v>1</v>
       </c>
@@ -13486,11 +13492,17 @@
         <v>-105171.9348015899</v>
       </c>
       <c r="H397" t="n">
-        <v>0</v>
-      </c>
-      <c r="I397" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I397" t="n">
+        <v>618.9</v>
+      </c>
       <c r="J397" t="inlineStr"/>
-      <c r="K397" t="inlineStr"/>
+      <c r="K397" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L397" t="n">
         <v>1</v>
       </c>
@@ -13519,11 +13531,17 @@
         <v>-102777.5946015899</v>
       </c>
       <c r="H398" t="n">
-        <v>0</v>
-      </c>
-      <c r="I398" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I398" t="n">
+        <v>620.3</v>
+      </c>
       <c r="J398" t="inlineStr"/>
-      <c r="K398" t="inlineStr"/>
+      <c r="K398" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L398" t="n">
         <v>1</v>
       </c>
@@ -13552,11 +13570,17 @@
         <v>-98460.40030158991</v>
       </c>
       <c r="H399" t="n">
-        <v>0</v>
-      </c>
-      <c r="I399" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I399" t="n">
+        <v>620.7</v>
+      </c>
       <c r="J399" t="inlineStr"/>
-      <c r="K399" t="inlineStr"/>
+      <c r="K399" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L399" t="n">
         <v>1</v>
       </c>
@@ -13585,11 +13609,17 @@
         <v>-98548.3003015899</v>
       </c>
       <c r="H400" t="n">
-        <v>0</v>
-      </c>
-      <c r="I400" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I400" t="n">
+        <v>623.8</v>
+      </c>
       <c r="J400" t="inlineStr"/>
-      <c r="K400" t="inlineStr"/>
+      <c r="K400" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L400" t="n">
         <v>1</v>
       </c>
@@ -13618,11 +13648,17 @@
         <v>-98548.3003015899</v>
       </c>
       <c r="H401" t="n">
-        <v>0</v>
-      </c>
-      <c r="I401" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I401" t="n">
+        <v>617</v>
+      </c>
       <c r="J401" t="inlineStr"/>
-      <c r="K401" t="inlineStr"/>
+      <c r="K401" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L401" t="n">
         <v>1</v>
       </c>
@@ -13651,11 +13687,17 @@
         <v>-98548.3003015899</v>
       </c>
       <c r="H402" t="n">
-        <v>0</v>
-      </c>
-      <c r="I402" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I402" t="n">
+        <v>617</v>
+      </c>
       <c r="J402" t="inlineStr"/>
-      <c r="K402" t="inlineStr"/>
+      <c r="K402" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L402" t="n">
         <v>1</v>
       </c>
@@ -13684,11 +13726,17 @@
         <v>-101698.9990015899</v>
       </c>
       <c r="H403" t="n">
-        <v>0</v>
-      </c>
-      <c r="I403" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I403" t="n">
+        <v>617</v>
+      </c>
       <c r="J403" t="inlineStr"/>
-      <c r="K403" t="inlineStr"/>
+      <c r="K403" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L403" t="n">
         <v>1</v>
       </c>
@@ -13717,11 +13765,17 @@
         <v>-101689.9136015899</v>
       </c>
       <c r="H404" t="n">
-        <v>0</v>
-      </c>
-      <c r="I404" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I404" t="n">
+        <v>615</v>
+      </c>
       <c r="J404" t="inlineStr"/>
-      <c r="K404" t="inlineStr"/>
+      <c r="K404" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L404" t="n">
         <v>1</v>
       </c>
@@ -13750,11 +13804,17 @@
         <v>-101664.9136015899</v>
       </c>
       <c r="H405" t="n">
-        <v>0</v>
-      </c>
-      <c r="I405" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I405" t="n">
+        <v>615.1</v>
+      </c>
       <c r="J405" t="inlineStr"/>
-      <c r="K405" t="inlineStr"/>
+      <c r="K405" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L405" t="n">
         <v>1</v>
       </c>
@@ -13783,11 +13843,17 @@
         <v>-103366.6606015899</v>
       </c>
       <c r="H406" t="n">
-        <v>0</v>
-      </c>
-      <c r="I406" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I406" t="n">
+        <v>621.5</v>
+      </c>
       <c r="J406" t="inlineStr"/>
-      <c r="K406" t="inlineStr"/>
+      <c r="K406" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L406" t="n">
         <v>1</v>
       </c>
@@ -13820,7 +13886,11 @@
       </c>
       <c r="I407" t="inlineStr"/>
       <c r="J407" t="inlineStr"/>
-      <c r="K407" t="inlineStr"/>
+      <c r="K407" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L407" t="n">
         <v>1</v>
       </c>
@@ -13849,11 +13919,17 @@
         <v>-103126.0067015899</v>
       </c>
       <c r="H408" t="n">
-        <v>0</v>
-      </c>
-      <c r="I408" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I408" t="n">
+        <v>620.9</v>
+      </c>
       <c r="J408" t="inlineStr"/>
-      <c r="K408" t="inlineStr"/>
+      <c r="K408" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L408" t="n">
         <v>1</v>
       </c>
@@ -13882,11 +13958,17 @@
         <v>-101953.6360015899</v>
       </c>
       <c r="H409" t="n">
-        <v>0</v>
-      </c>
-      <c r="I409" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I409" t="n">
+        <v>621</v>
+      </c>
       <c r="J409" t="inlineStr"/>
-      <c r="K409" t="inlineStr"/>
+      <c r="K409" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L409" t="n">
         <v>1</v>
       </c>
@@ -13919,7 +14001,11 @@
       </c>
       <c r="I410" t="inlineStr"/>
       <c r="J410" t="inlineStr"/>
-      <c r="K410" t="inlineStr"/>
+      <c r="K410" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L410" t="n">
         <v>1</v>
       </c>
@@ -13952,7 +14038,11 @@
       </c>
       <c r="I411" t="inlineStr"/>
       <c r="J411" t="inlineStr"/>
-      <c r="K411" t="inlineStr"/>
+      <c r="K411" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L411" t="n">
         <v>1</v>
       </c>
@@ -13981,11 +14071,17 @@
         <v>-101953.6360015899</v>
       </c>
       <c r="H412" t="n">
-        <v>0</v>
-      </c>
-      <c r="I412" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I412" t="n">
+        <v>621.4</v>
+      </c>
       <c r="J412" t="inlineStr"/>
-      <c r="K412" t="inlineStr"/>
+      <c r="K412" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L412" t="n">
         <v>1</v>
       </c>
@@ -14014,11 +14110,17 @@
         <v>-101953.6360015899</v>
       </c>
       <c r="H413" t="n">
-        <v>0</v>
-      </c>
-      <c r="I413" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I413" t="n">
+        <v>621.4</v>
+      </c>
       <c r="J413" t="inlineStr"/>
-      <c r="K413" t="inlineStr"/>
+      <c r="K413" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L413" t="n">
         <v>1</v>
       </c>
@@ -14051,7 +14153,11 @@
       </c>
       <c r="I414" t="inlineStr"/>
       <c r="J414" t="inlineStr"/>
-      <c r="K414" t="inlineStr"/>
+      <c r="K414" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L414" t="n">
         <v>1</v>
       </c>
@@ -14084,7 +14190,11 @@
       </c>
       <c r="I415" t="inlineStr"/>
       <c r="J415" t="inlineStr"/>
-      <c r="K415" t="inlineStr"/>
+      <c r="K415" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L415" t="n">
         <v>1</v>
       </c>
@@ -14113,11 +14223,17 @@
         <v>-104003.6360015899</v>
       </c>
       <c r="H416" t="n">
-        <v>0</v>
-      </c>
-      <c r="I416" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I416" t="n">
+        <v>621.4</v>
+      </c>
       <c r="J416" t="inlineStr"/>
-      <c r="K416" t="inlineStr"/>
+      <c r="K416" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L416" t="n">
         <v>1</v>
       </c>
@@ -14146,11 +14262,17 @@
         <v>-97580.18030158989</v>
       </c>
       <c r="H417" t="n">
-        <v>0</v>
-      </c>
-      <c r="I417" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I417" t="n">
+        <v>618.2</v>
+      </c>
       <c r="J417" t="inlineStr"/>
-      <c r="K417" t="inlineStr"/>
+      <c r="K417" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L417" t="n">
         <v>1</v>
       </c>
@@ -14183,7 +14305,11 @@
       </c>
       <c r="I418" t="inlineStr"/>
       <c r="J418" t="inlineStr"/>
-      <c r="K418" t="inlineStr"/>
+      <c r="K418" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L418" t="n">
         <v>1</v>
       </c>
@@ -14216,7 +14342,11 @@
       </c>
       <c r="I419" t="inlineStr"/>
       <c r="J419" t="inlineStr"/>
-      <c r="K419" t="inlineStr"/>
+      <c r="K419" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L419" t="n">
         <v>1</v>
       </c>
@@ -14245,11 +14375,17 @@
         <v>-92182.18030158989</v>
       </c>
       <c r="H420" t="n">
-        <v>0</v>
-      </c>
-      <c r="I420" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I420" t="n">
+        <v>621.3</v>
+      </c>
       <c r="J420" t="inlineStr"/>
-      <c r="K420" t="inlineStr"/>
+      <c r="K420" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L420" t="n">
         <v>1</v>
       </c>
@@ -14282,7 +14418,11 @@
       </c>
       <c r="I421" t="inlineStr"/>
       <c r="J421" t="inlineStr"/>
-      <c r="K421" t="inlineStr"/>
+      <c r="K421" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L421" t="n">
         <v>1</v>
       </c>
@@ -14315,7 +14455,11 @@
       </c>
       <c r="I422" t="inlineStr"/>
       <c r="J422" t="inlineStr"/>
-      <c r="K422" t="inlineStr"/>
+      <c r="K422" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L422" t="n">
         <v>1</v>
       </c>
@@ -14348,7 +14492,11 @@
       </c>
       <c r="I423" t="inlineStr"/>
       <c r="J423" t="inlineStr"/>
-      <c r="K423" t="inlineStr"/>
+      <c r="K423" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L423" t="n">
         <v>1</v>
       </c>
@@ -14381,7 +14529,11 @@
       </c>
       <c r="I424" t="inlineStr"/>
       <c r="J424" t="inlineStr"/>
-      <c r="K424" t="inlineStr"/>
+      <c r="K424" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L424" t="n">
         <v>1</v>
       </c>
@@ -14410,11 +14562,17 @@
         <v>-87446.46920158989</v>
       </c>
       <c r="H425" t="n">
-        <v>0</v>
-      </c>
-      <c r="I425" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I425" t="n">
+        <v>621.4</v>
+      </c>
       <c r="J425" t="inlineStr"/>
-      <c r="K425" t="inlineStr"/>
+      <c r="K425" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L425" t="n">
         <v>1</v>
       </c>
@@ -14447,7 +14605,11 @@
       </c>
       <c r="I426" t="inlineStr"/>
       <c r="J426" t="inlineStr"/>
-      <c r="K426" t="inlineStr"/>
+      <c r="K426" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L426" t="n">
         <v>1</v>
       </c>
@@ -14480,7 +14642,11 @@
       </c>
       <c r="I427" t="inlineStr"/>
       <c r="J427" t="inlineStr"/>
-      <c r="K427" t="inlineStr"/>
+      <c r="K427" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L427" t="n">
         <v>1</v>
       </c>
@@ -14513,7 +14679,11 @@
       </c>
       <c r="I428" t="inlineStr"/>
       <c r="J428" t="inlineStr"/>
-      <c r="K428" t="inlineStr"/>
+      <c r="K428" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L428" t="n">
         <v>1</v>
       </c>
@@ -14546,7 +14716,11 @@
       </c>
       <c r="I429" t="inlineStr"/>
       <c r="J429" t="inlineStr"/>
-      <c r="K429" t="inlineStr"/>
+      <c r="K429" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L429" t="n">
         <v>1</v>
       </c>
@@ -14579,7 +14753,11 @@
       </c>
       <c r="I430" t="inlineStr"/>
       <c r="J430" t="inlineStr"/>
-      <c r="K430" t="inlineStr"/>
+      <c r="K430" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L430" t="n">
         <v>1</v>
       </c>
@@ -14612,7 +14790,11 @@
       </c>
       <c r="I431" t="inlineStr"/>
       <c r="J431" t="inlineStr"/>
-      <c r="K431" t="inlineStr"/>
+      <c r="K431" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L431" t="n">
         <v>1</v>
       </c>
@@ -14645,7 +14827,11 @@
       </c>
       <c r="I432" t="inlineStr"/>
       <c r="J432" t="inlineStr"/>
-      <c r="K432" t="inlineStr"/>
+      <c r="K432" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L432" t="n">
         <v>1</v>
       </c>
@@ -14678,7 +14864,11 @@
       </c>
       <c r="I433" t="inlineStr"/>
       <c r="J433" t="inlineStr"/>
-      <c r="K433" t="inlineStr"/>
+      <c r="K433" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L433" t="n">
         <v>1</v>
       </c>
@@ -14711,7 +14901,11 @@
       </c>
       <c r="I434" t="inlineStr"/>
       <c r="J434" t="inlineStr"/>
-      <c r="K434" t="inlineStr"/>
+      <c r="K434" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L434" t="n">
         <v>1</v>
       </c>
@@ -14744,7 +14938,11 @@
       </c>
       <c r="I435" t="inlineStr"/>
       <c r="J435" t="inlineStr"/>
-      <c r="K435" t="inlineStr"/>
+      <c r="K435" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L435" t="n">
         <v>1</v>
       </c>
@@ -14777,7 +14975,11 @@
       </c>
       <c r="I436" t="inlineStr"/>
       <c r="J436" t="inlineStr"/>
-      <c r="K436" t="inlineStr"/>
+      <c r="K436" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L436" t="n">
         <v>1</v>
       </c>
@@ -14810,7 +15012,11 @@
       </c>
       <c r="I437" t="inlineStr"/>
       <c r="J437" t="inlineStr"/>
-      <c r="K437" t="inlineStr"/>
+      <c r="K437" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L437" t="n">
         <v>1</v>
       </c>
@@ -14843,7 +15049,11 @@
       </c>
       <c r="I438" t="inlineStr"/>
       <c r="J438" t="inlineStr"/>
-      <c r="K438" t="inlineStr"/>
+      <c r="K438" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L438" t="n">
         <v>1</v>
       </c>
@@ -14876,7 +15086,11 @@
       </c>
       <c r="I439" t="inlineStr"/>
       <c r="J439" t="inlineStr"/>
-      <c r="K439" t="inlineStr"/>
+      <c r="K439" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L439" t="n">
         <v>1</v>
       </c>
@@ -14909,7 +15123,11 @@
       </c>
       <c r="I440" t="inlineStr"/>
       <c r="J440" t="inlineStr"/>
-      <c r="K440" t="inlineStr"/>
+      <c r="K440" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L440" t="n">
         <v>1</v>
       </c>
@@ -14942,7 +15160,11 @@
       </c>
       <c r="I441" t="inlineStr"/>
       <c r="J441" t="inlineStr"/>
-      <c r="K441" t="inlineStr"/>
+      <c r="K441" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L441" t="n">
         <v>1</v>
       </c>
@@ -14975,7 +15197,11 @@
       </c>
       <c r="I442" t="inlineStr"/>
       <c r="J442" t="inlineStr"/>
-      <c r="K442" t="inlineStr"/>
+      <c r="K442" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L442" t="n">
         <v>1</v>
       </c>
@@ -15008,7 +15234,11 @@
       </c>
       <c r="I443" t="inlineStr"/>
       <c r="J443" t="inlineStr"/>
-      <c r="K443" t="inlineStr"/>
+      <c r="K443" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L443" t="n">
         <v>1</v>
       </c>
@@ -15041,7 +15271,11 @@
       </c>
       <c r="I444" t="inlineStr"/>
       <c r="J444" t="inlineStr"/>
-      <c r="K444" t="inlineStr"/>
+      <c r="K444" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L444" t="n">
         <v>1</v>
       </c>
@@ -15074,7 +15308,11 @@
       </c>
       <c r="I445" t="inlineStr"/>
       <c r="J445" t="inlineStr"/>
-      <c r="K445" t="inlineStr"/>
+      <c r="K445" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L445" t="n">
         <v>1</v>
       </c>
@@ -15107,7 +15345,11 @@
       </c>
       <c r="I446" t="inlineStr"/>
       <c r="J446" t="inlineStr"/>
-      <c r="K446" t="inlineStr"/>
+      <c r="K446" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L446" t="n">
         <v>1</v>
       </c>
@@ -15140,7 +15382,11 @@
       </c>
       <c r="I447" t="inlineStr"/>
       <c r="J447" t="inlineStr"/>
-      <c r="K447" t="inlineStr"/>
+      <c r="K447" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L447" t="n">
         <v>1</v>
       </c>
@@ -15173,7 +15419,11 @@
       </c>
       <c r="I448" t="inlineStr"/>
       <c r="J448" t="inlineStr"/>
-      <c r="K448" t="inlineStr"/>
+      <c r="K448" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L448" t="n">
         <v>1</v>
       </c>
@@ -15206,7 +15456,11 @@
       </c>
       <c r="I449" t="inlineStr"/>
       <c r="J449" t="inlineStr"/>
-      <c r="K449" t="inlineStr"/>
+      <c r="K449" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L449" t="n">
         <v>1</v>
       </c>
@@ -15235,11 +15489,17 @@
         <v>-82685.37570158989</v>
       </c>
       <c r="H450" t="n">
-        <v>0</v>
-      </c>
-      <c r="I450" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I450" t="n">
+        <v>617</v>
+      </c>
       <c r="J450" t="inlineStr"/>
-      <c r="K450" t="inlineStr"/>
+      <c r="K450" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L450" t="n">
         <v>1</v>
       </c>
@@ -15268,11 +15528,17 @@
         <v>-82685.37570158989</v>
       </c>
       <c r="H451" t="n">
-        <v>0</v>
-      </c>
-      <c r="I451" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I451" t="n">
+        <v>616.9</v>
+      </c>
       <c r="J451" t="inlineStr"/>
-      <c r="K451" t="inlineStr"/>
+      <c r="K451" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L451" t="n">
         <v>1</v>
       </c>
@@ -15305,7 +15571,11 @@
       </c>
       <c r="I452" t="inlineStr"/>
       <c r="J452" t="inlineStr"/>
-      <c r="K452" t="inlineStr"/>
+      <c r="K452" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L452" t="n">
         <v>1</v>
       </c>
@@ -15338,7 +15608,11 @@
       </c>
       <c r="I453" t="inlineStr"/>
       <c r="J453" t="inlineStr"/>
-      <c r="K453" t="inlineStr"/>
+      <c r="K453" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L453" t="n">
         <v>1</v>
       </c>
@@ -15367,11 +15641,17 @@
         <v>-83941.2065015899</v>
       </c>
       <c r="H454" t="n">
-        <v>0</v>
-      </c>
-      <c r="I454" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I454" t="n">
+        <v>614.2</v>
+      </c>
       <c r="J454" t="inlineStr"/>
-      <c r="K454" t="inlineStr"/>
+      <c r="K454" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L454" t="n">
         <v>1</v>
       </c>
@@ -15400,11 +15680,17 @@
         <v>-85379.39450158989</v>
       </c>
       <c r="H455" t="n">
-        <v>0</v>
-      </c>
-      <c r="I455" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I455" t="n">
+        <v>613.5</v>
+      </c>
       <c r="J455" t="inlineStr"/>
-      <c r="K455" t="inlineStr"/>
+      <c r="K455" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L455" t="n">
         <v>1</v>
       </c>
@@ -15433,11 +15719,17 @@
         <v>-87339.89040158989</v>
       </c>
       <c r="H456" t="n">
-        <v>0</v>
-      </c>
-      <c r="I456" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I456" t="n">
+        <v>613.4</v>
+      </c>
       <c r="J456" t="inlineStr"/>
-      <c r="K456" t="inlineStr"/>
+      <c r="K456" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L456" t="n">
         <v>1</v>
       </c>
@@ -15470,7 +15762,11 @@
       </c>
       <c r="I457" t="inlineStr"/>
       <c r="J457" t="inlineStr"/>
-      <c r="K457" t="inlineStr"/>
+      <c r="K457" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L457" t="n">
         <v>1</v>
       </c>
@@ -15499,15 +15795,17 @@
         <v>-87339.89040158989</v>
       </c>
       <c r="H458" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I458" t="n">
         <v>613</v>
       </c>
-      <c r="J458" t="n">
-        <v>613</v>
-      </c>
-      <c r="K458" t="inlineStr"/>
+      <c r="J458" t="inlineStr"/>
+      <c r="K458" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L458" t="n">
         <v>1</v>
       </c>
@@ -15536,17 +15834,15 @@
         <v>-85339.89040158989</v>
       </c>
       <c r="H459" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I459" t="n">
         <v>613</v>
       </c>
-      <c r="J459" t="n">
-        <v>613</v>
-      </c>
+      <c r="J459" t="inlineStr"/>
       <c r="K459" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L459" t="n">
@@ -15577,17 +15873,15 @@
         <v>-85454.89040158989</v>
       </c>
       <c r="H460" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I460" t="n">
         <v>614.6</v>
       </c>
-      <c r="J460" t="n">
-        <v>613</v>
-      </c>
+      <c r="J460" t="inlineStr"/>
       <c r="K460" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L460" t="n">
@@ -15618,17 +15912,15 @@
         <v>-92453.61860158989</v>
       </c>
       <c r="H461" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I461" t="n">
         <v>612</v>
       </c>
-      <c r="J461" t="n">
-        <v>613</v>
-      </c>
+      <c r="J461" t="inlineStr"/>
       <c r="K461" t="inlineStr">
         <is>
-          <t>매수 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L461" t="n">
@@ -15659,14 +15951,12 @@
         <v>-98303.16840158988</v>
       </c>
       <c r="H462" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I462" t="n">
         <v>611.7</v>
       </c>
-      <c r="J462" t="n">
-        <v>613</v>
-      </c>
+      <c r="J462" t="inlineStr"/>
       <c r="K462" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15700,14 +15990,12 @@
         <v>-98303.16840158988</v>
       </c>
       <c r="H463" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I463" t="n">
         <v>610</v>
       </c>
-      <c r="J463" t="n">
-        <v>613</v>
-      </c>
+      <c r="J463" t="inlineStr"/>
       <c r="K463" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15741,14 +16029,12 @@
         <v>-98303.16840158988</v>
       </c>
       <c r="H464" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I464" t="n">
         <v>610</v>
       </c>
-      <c r="J464" t="n">
-        <v>613</v>
-      </c>
+      <c r="J464" t="inlineStr"/>
       <c r="K464" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15760,6 +16046,6 @@
       <c r="M464" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>
--- a/BackTest/2020-01-24 BackTest BCD.xlsx
+++ b/BackTest/2020-01-24 BackTest BCD.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>CMO</t>
+          <t>OBV</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -451,7 +451,7 @@
         <v>14593.90057786</v>
       </c>
       <c r="H2" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
@@ -484,7 +484,7 @@
         <v>12639.59057786</v>
       </c>
       <c r="H3" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
@@ -517,7 +517,7 @@
         <v>14105.32307786</v>
       </c>
       <c r="H4" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I4" t="inlineStr"/>
       <c r="J4" t="inlineStr"/>
@@ -550,7 +550,7 @@
         <v>14178.42917786</v>
       </c>
       <c r="H5" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I5" t="inlineStr"/>
       <c r="J5" t="inlineStr"/>
@@ -583,7 +583,7 @@
         <v>14178.42917786</v>
       </c>
       <c r="H6" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I6" t="inlineStr"/>
       <c r="J6" t="inlineStr"/>
@@ -616,7 +616,7 @@
         <v>12178.42917786</v>
       </c>
       <c r="H7" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I7" t="inlineStr"/>
       <c r="J7" t="inlineStr"/>
@@ -649,7 +649,7 @@
         <v>12403.02917786</v>
       </c>
       <c r="H8" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I8" t="inlineStr"/>
       <c r="J8" t="inlineStr"/>
@@ -682,7 +682,7 @@
         <v>12403.02917786</v>
       </c>
       <c r="H9" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I9" t="inlineStr"/>
       <c r="J9" t="inlineStr"/>
@@ -715,7 +715,7 @@
         <v>12552.02917786</v>
       </c>
       <c r="H10" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I10" t="inlineStr"/>
       <c r="J10" t="inlineStr"/>
@@ -748,7 +748,7 @@
         <v>12552.02917786</v>
       </c>
       <c r="H11" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I11" t="inlineStr"/>
       <c r="J11" t="inlineStr"/>
@@ -781,7 +781,7 @@
         <v>12732.53937786</v>
       </c>
       <c r="H12" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I12" t="inlineStr"/>
       <c r="J12" t="inlineStr"/>
@@ -814,7 +814,7 @@
         <v>15465.29027786</v>
       </c>
       <c r="H13" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I13" t="inlineStr"/>
       <c r="J13" t="inlineStr"/>
@@ -847,7 +847,7 @@
         <v>15457.43697786</v>
       </c>
       <c r="H14" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I14" t="inlineStr"/>
       <c r="J14" t="inlineStr"/>
@@ -880,7 +880,7 @@
         <v>15756.50297786</v>
       </c>
       <c r="H15" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I15" t="inlineStr"/>
       <c r="J15" t="inlineStr"/>
@@ -913,7 +913,7 @@
         <v>15205.10297786</v>
       </c>
       <c r="H16" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I16" t="inlineStr"/>
       <c r="J16" t="inlineStr"/>
@@ -946,7 +946,7 @@
         <v>14937.63027786</v>
       </c>
       <c r="H17" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I17" t="inlineStr"/>
       <c r="J17" t="inlineStr"/>
@@ -979,7 +979,7 @@
         <v>14675.49487786</v>
       </c>
       <c r="H18" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I18" t="inlineStr"/>
       <c r="J18" t="inlineStr"/>
@@ -1012,7 +1012,7 @@
         <v>11934.89067786</v>
       </c>
       <c r="H19" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I19" t="inlineStr"/>
       <c r="J19" t="inlineStr"/>
@@ -1045,7 +1045,7 @@
         <v>12036.49307786</v>
       </c>
       <c r="H20" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I20" t="inlineStr"/>
       <c r="J20" t="inlineStr"/>
@@ -1078,7 +1078,7 @@
         <v>12061.74327786</v>
       </c>
       <c r="H21" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I21" t="inlineStr"/>
       <c r="J21" t="inlineStr"/>
@@ -1111,7 +1111,7 @@
         <v>12051.74327786</v>
       </c>
       <c r="H22" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I22" t="inlineStr"/>
       <c r="J22" t="inlineStr"/>
@@ -1144,7 +1144,7 @@
         <v>12276.81077786</v>
       </c>
       <c r="H23" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I23" t="inlineStr"/>
       <c r="J23" t="inlineStr"/>
@@ -1177,7 +1177,7 @@
         <v>12203.70467786</v>
       </c>
       <c r="H24" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I24" t="inlineStr"/>
       <c r="J24" t="inlineStr"/>
@@ -1210,7 +1210,7 @@
         <v>12254.30457786</v>
       </c>
       <c r="H25" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I25" t="inlineStr"/>
       <c r="J25" t="inlineStr"/>
@@ -1243,7 +1243,7 @@
         <v>12300.39407786</v>
       </c>
       <c r="H26" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I26" t="inlineStr"/>
       <c r="J26" t="inlineStr"/>
@@ -1276,7 +1276,7 @@
         <v>12113.52867786</v>
       </c>
       <c r="H27" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I27" t="inlineStr"/>
       <c r="J27" t="inlineStr"/>
@@ -1309,7 +1309,7 @@
         <v>11859.67047786</v>
       </c>
       <c r="H28" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I28" t="inlineStr"/>
       <c r="J28" t="inlineStr"/>
@@ -1342,7 +1342,7 @@
         <v>11968.67047786</v>
       </c>
       <c r="H29" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I29" t="inlineStr"/>
       <c r="J29" t="inlineStr"/>
@@ -1375,7 +1375,7 @@
         <v>11968.67047786</v>
       </c>
       <c r="H30" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I30" t="inlineStr"/>
       <c r="J30" t="inlineStr"/>
@@ -1408,7 +1408,7 @@
         <v>11968.67047786</v>
       </c>
       <c r="H31" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I31" t="inlineStr"/>
       <c r="J31" t="inlineStr"/>
@@ -2134,7 +2134,7 @@
         <v>9891.925828930001</v>
       </c>
       <c r="H53" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I53" t="inlineStr"/>
       <c r="J53" t="inlineStr"/>
@@ -2167,7 +2167,7 @@
         <v>7871.925828930001</v>
       </c>
       <c r="H54" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I54" t="inlineStr"/>
       <c r="J54" t="inlineStr"/>
@@ -2200,7 +2200,7 @@
         <v>7871.925828930001</v>
       </c>
       <c r="H55" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I55" t="inlineStr"/>
       <c r="J55" t="inlineStr"/>
@@ -2233,7 +2233,7 @@
         <v>8091.577328930001</v>
       </c>
       <c r="H56" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I56" t="inlineStr"/>
       <c r="J56" t="inlineStr"/>
@@ -2266,7 +2266,7 @@
         <v>5591.577328930001</v>
       </c>
       <c r="H57" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I57" t="inlineStr"/>
       <c r="J57" t="inlineStr"/>
@@ -2299,7 +2299,7 @@
         <v>5893.649877940002</v>
       </c>
       <c r="H58" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I58" t="inlineStr"/>
       <c r="J58" t="inlineStr"/>
@@ -2332,7 +2332,7 @@
         <v>5428.849877940002</v>
       </c>
       <c r="H59" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I59" t="inlineStr"/>
       <c r="J59" t="inlineStr"/>
@@ -2365,7 +2365,7 @@
         <v>5428.849877940002</v>
       </c>
       <c r="H60" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I60" t="inlineStr"/>
       <c r="J60" t="inlineStr"/>
@@ -2398,7 +2398,7 @@
         <v>5428.849877940002</v>
       </c>
       <c r="H61" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I61" t="inlineStr"/>
       <c r="J61" t="inlineStr"/>
@@ -2431,7 +2431,7 @@
         <v>5428.849877940002</v>
       </c>
       <c r="H62" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I62" t="inlineStr"/>
       <c r="J62" t="inlineStr"/>
@@ -2464,7 +2464,7 @@
         <v>5428.849877940002</v>
       </c>
       <c r="H63" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I63" t="inlineStr"/>
       <c r="J63" t="inlineStr"/>
@@ -2497,7 +2497,7 @@
         <v>5403.352147230002</v>
       </c>
       <c r="H64" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I64" t="inlineStr"/>
       <c r="J64" t="inlineStr"/>
@@ -2530,7 +2530,7 @@
         <v>4825.378347230002</v>
       </c>
       <c r="H65" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I65" t="inlineStr"/>
       <c r="J65" t="inlineStr"/>
@@ -2563,7 +2563,7 @@
         <v>5470.378347230002</v>
       </c>
       <c r="H66" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I66" t="inlineStr"/>
       <c r="J66" t="inlineStr"/>
@@ -2596,7 +2596,7 @@
         <v>7216.008606390002</v>
       </c>
       <c r="H67" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I67" t="inlineStr"/>
       <c r="J67" t="inlineStr"/>
@@ -2629,7 +2629,7 @@
         <v>7166.008606390002</v>
       </c>
       <c r="H68" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I68" t="inlineStr"/>
       <c r="J68" t="inlineStr"/>
@@ -2662,7 +2662,7 @@
         <v>7271.183206390002</v>
       </c>
       <c r="H69" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I69" t="inlineStr"/>
       <c r="J69" t="inlineStr"/>
@@ -2695,7 +2695,7 @@
         <v>7646.752106390002</v>
       </c>
       <c r="H70" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I70" t="inlineStr"/>
       <c r="J70" t="inlineStr"/>
@@ -2728,7 +2728,7 @@
         <v>7646.752106390002</v>
       </c>
       <c r="H71" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I71" t="inlineStr"/>
       <c r="J71" t="inlineStr"/>
@@ -2761,7 +2761,7 @@
         <v>7970.188006390003</v>
       </c>
       <c r="H72" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I72" t="inlineStr"/>
       <c r="J72" t="inlineStr"/>
@@ -2794,7 +2794,7 @@
         <v>7940.095406390003</v>
       </c>
       <c r="H73" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I73" t="inlineStr"/>
       <c r="J73" t="inlineStr"/>
@@ -2827,7 +2827,7 @@
         <v>7569.095406390003</v>
       </c>
       <c r="H74" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I74" t="inlineStr"/>
       <c r="J74" t="inlineStr"/>
@@ -2860,7 +2860,7 @@
         <v>7409.095406390003</v>
       </c>
       <c r="H75" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I75" t="inlineStr"/>
       <c r="J75" t="inlineStr"/>
@@ -2893,7 +2893,7 @@
         <v>7409.095406390003</v>
       </c>
       <c r="H76" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I76" t="inlineStr"/>
       <c r="J76" t="inlineStr"/>
@@ -2926,7 +2926,7 @@
         <v>8214.226206390003</v>
       </c>
       <c r="H77" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I77" t="inlineStr"/>
       <c r="J77" t="inlineStr"/>
@@ -2959,7 +2959,7 @@
         <v>8947.116506390004</v>
       </c>
       <c r="H78" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I78" t="inlineStr"/>
       <c r="J78" t="inlineStr"/>
@@ -2992,7 +2992,7 @@
         <v>8888.788906390004</v>
       </c>
       <c r="H79" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I79" t="inlineStr"/>
       <c r="J79" t="inlineStr"/>
@@ -3025,7 +3025,7 @@
         <v>8586.403506390005</v>
       </c>
       <c r="H80" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I80" t="inlineStr"/>
       <c r="J80" t="inlineStr"/>
@@ -3058,7 +3058,7 @@
         <v>9139.848006390004</v>
       </c>
       <c r="H81" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I81" t="inlineStr"/>
       <c r="J81" t="inlineStr"/>
@@ -3190,7 +3190,7 @@
         <v>9825.797306390004</v>
       </c>
       <c r="H85" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I85" t="inlineStr"/>
       <c r="J85" t="inlineStr"/>
@@ -3223,7 +3223,7 @@
         <v>9905.911306390004</v>
       </c>
       <c r="H86" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I86" t="inlineStr"/>
       <c r="J86" t="inlineStr"/>
@@ -3256,7 +3256,7 @@
         <v>9857.911306390004</v>
       </c>
       <c r="H87" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I87" t="inlineStr"/>
       <c r="J87" t="inlineStr"/>
@@ -3289,7 +3289,7 @@
         <v>10299.10430639</v>
       </c>
       <c r="H88" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I88" t="inlineStr"/>
       <c r="J88" t="inlineStr"/>
@@ -3322,7 +3322,7 @@
         <v>10447.96610639</v>
       </c>
       <c r="H89" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I89" t="inlineStr"/>
       <c r="J89" t="inlineStr"/>
@@ -3355,7 +3355,7 @@
         <v>10447.96610639</v>
       </c>
       <c r="H90" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I90" t="inlineStr"/>
       <c r="J90" t="inlineStr"/>
@@ -3388,7 +3388,7 @@
         <v>7665.268606390004</v>
       </c>
       <c r="H91" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I91" t="inlineStr"/>
       <c r="J91" t="inlineStr"/>
@@ -3421,7 +3421,7 @@
         <v>7665.268606390004</v>
       </c>
       <c r="H92" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I92" t="inlineStr"/>
       <c r="J92" t="inlineStr"/>
@@ -3454,7 +3454,7 @@
         <v>7665.268606390004</v>
       </c>
       <c r="H93" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I93" t="inlineStr"/>
       <c r="J93" t="inlineStr"/>
@@ -3487,7 +3487,7 @@
         <v>7665.268606390004</v>
       </c>
       <c r="H94" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I94" t="inlineStr"/>
       <c r="J94" t="inlineStr"/>
@@ -3520,7 +3520,7 @@
         <v>7662.869006390004</v>
       </c>
       <c r="H95" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I95" t="inlineStr"/>
       <c r="J95" t="inlineStr"/>
@@ -3553,7 +3553,7 @@
         <v>7669.518714600004</v>
       </c>
       <c r="H96" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I96" t="inlineStr"/>
       <c r="J96" t="inlineStr"/>
@@ -3586,7 +3586,7 @@
         <v>10905.85240639</v>
       </c>
       <c r="H97" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I97" t="inlineStr"/>
       <c r="J97" t="inlineStr"/>
@@ -3619,7 +3619,7 @@
         <v>11494.59880639</v>
       </c>
       <c r="H98" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I98" t="inlineStr"/>
       <c r="J98" t="inlineStr"/>
@@ -3652,7 +3652,7 @@
         <v>11494.59880639</v>
       </c>
       <c r="H99" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I99" t="inlineStr"/>
       <c r="J99" t="inlineStr"/>
@@ -3685,7 +3685,7 @@
         <v>11494.59880639</v>
       </c>
       <c r="H100" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I100" t="inlineStr"/>
       <c r="J100" t="inlineStr"/>
@@ -3718,7 +3718,7 @@
         <v>9474.041606390005</v>
       </c>
       <c r="H101" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I101" t="inlineStr"/>
       <c r="J101" t="inlineStr"/>
@@ -3751,7 +3751,7 @@
         <v>7143.495906390004</v>
       </c>
       <c r="H102" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I102" t="inlineStr"/>
       <c r="J102" t="inlineStr"/>
@@ -3784,7 +3784,7 @@
         <v>7207.053306390004</v>
       </c>
       <c r="H103" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I103" t="inlineStr"/>
       <c r="J103" t="inlineStr"/>
@@ -3817,7 +3817,7 @@
         <v>6052.941206390004</v>
       </c>
       <c r="H104" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I104" t="inlineStr"/>
       <c r="J104" t="inlineStr"/>
@@ -3850,7 +3850,7 @@
         <v>6197.382906390004</v>
       </c>
       <c r="H105" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I105" t="inlineStr"/>
       <c r="J105" t="inlineStr"/>
@@ -3883,7 +3883,7 @@
         <v>6197.382906390004</v>
       </c>
       <c r="H106" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I106" t="inlineStr"/>
       <c r="J106" t="inlineStr"/>
@@ -3916,7 +3916,7 @@
         <v>6197.382906390004</v>
       </c>
       <c r="H107" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I107" t="inlineStr"/>
       <c r="J107" t="inlineStr"/>
@@ -3949,7 +3949,7 @@
         <v>4197.382906390004</v>
       </c>
       <c r="H108" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I108" t="inlineStr"/>
       <c r="J108" t="inlineStr"/>
@@ -3982,7 +3982,7 @@
         <v>4198.136006390004</v>
       </c>
       <c r="H109" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I109" t="inlineStr"/>
       <c r="J109" t="inlineStr"/>
@@ -4015,7 +4015,7 @@
         <v>4198.136006390004</v>
       </c>
       <c r="H110" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I110" t="inlineStr"/>
       <c r="J110" t="inlineStr"/>
@@ -4048,7 +4048,7 @@
         <v>4107.735406390004</v>
       </c>
       <c r="H111" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I111" t="inlineStr"/>
       <c r="J111" t="inlineStr"/>
@@ -4081,7 +4081,7 @@
         <v>4107.735406390004</v>
       </c>
       <c r="H112" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I112" t="inlineStr"/>
       <c r="J112" t="inlineStr"/>
@@ -4114,7 +4114,7 @@
         <v>4043.612006390004</v>
       </c>
       <c r="H113" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I113" t="inlineStr"/>
       <c r="J113" t="inlineStr"/>
@@ -4147,7 +4147,7 @@
         <v>-936.9621936099961</v>
       </c>
       <c r="H114" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I114" t="inlineStr"/>
       <c r="J114" t="inlineStr"/>
@@ -4180,7 +4180,7 @@
         <v>-907.9621936099961</v>
       </c>
       <c r="H115" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I115" t="inlineStr"/>
       <c r="J115" t="inlineStr"/>
@@ -4213,7 +4213,7 @@
         <v>-988.0761936099962</v>
       </c>
       <c r="H116" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I116" t="inlineStr"/>
       <c r="J116" t="inlineStr"/>
@@ -4246,7 +4246,7 @@
         <v>-988.0761936099962</v>
       </c>
       <c r="H117" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I117" t="inlineStr"/>
       <c r="J117" t="inlineStr"/>
@@ -4279,7 +4279,7 @@
         <v>-986.0761936099962</v>
       </c>
       <c r="H118" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I118" t="inlineStr"/>
       <c r="J118" t="inlineStr"/>
@@ -4312,7 +4312,7 @@
         <v>-1009.285893609996</v>
       </c>
       <c r="H119" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I119" t="inlineStr"/>
       <c r="J119" t="inlineStr"/>
@@ -4345,7 +4345,7 @@
         <v>-2267.396393609996</v>
       </c>
       <c r="H120" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I120" t="inlineStr"/>
       <c r="J120" t="inlineStr"/>
@@ -4378,7 +4378,7 @@
         <v>-2267.396393609996</v>
       </c>
       <c r="H121" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I121" t="inlineStr"/>
       <c r="J121" t="inlineStr"/>
@@ -4411,7 +4411,7 @@
         <v>-2267.396393609996</v>
       </c>
       <c r="H122" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I122" t="inlineStr"/>
       <c r="J122" t="inlineStr"/>
@@ -4444,7 +4444,7 @@
         <v>-2267.396393609996</v>
       </c>
       <c r="H123" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I123" t="inlineStr"/>
       <c r="J123" t="inlineStr"/>
@@ -4477,7 +4477,7 @@
         <v>-2473.907693609996</v>
       </c>
       <c r="H124" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I124" t="inlineStr"/>
       <c r="J124" t="inlineStr"/>
@@ -4510,7 +4510,7 @@
         <v>-8378.735693609997</v>
       </c>
       <c r="H125" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I125" t="inlineStr"/>
       <c r="J125" t="inlineStr"/>
@@ -4543,7 +4543,7 @@
         <v>-10563.73569361</v>
       </c>
       <c r="H126" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I126" t="inlineStr"/>
       <c r="J126" t="inlineStr"/>
@@ -4576,7 +4576,7 @@
         <v>-10563.73569361</v>
       </c>
       <c r="H127" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I127" t="inlineStr"/>
       <c r="J127" t="inlineStr"/>
@@ -4609,7 +4609,7 @@
         <v>-10563.73569361</v>
       </c>
       <c r="H128" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I128" t="inlineStr"/>
       <c r="J128" t="inlineStr"/>
@@ -4642,7 +4642,7 @@
         <v>-10563.73569361</v>
       </c>
       <c r="H129" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I129" t="inlineStr"/>
       <c r="J129" t="inlineStr"/>
@@ -4675,7 +4675,7 @@
         <v>-10563.73569361</v>
       </c>
       <c r="H130" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I130" t="inlineStr"/>
       <c r="J130" t="inlineStr"/>
@@ -4708,7 +4708,7 @@
         <v>-10910.79239361</v>
       </c>
       <c r="H131" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I131" t="inlineStr"/>
       <c r="J131" t="inlineStr"/>
@@ -4741,7 +4741,7 @@
         <v>-10910.79239361</v>
       </c>
       <c r="H132" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I132" t="inlineStr"/>
       <c r="J132" t="inlineStr"/>
@@ -4774,7 +4774,7 @@
         <v>-18238.60039361</v>
       </c>
       <c r="H133" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I133" t="inlineStr"/>
       <c r="J133" t="inlineStr"/>
@@ -4807,7 +4807,7 @@
         <v>-19022.58969361</v>
       </c>
       <c r="H134" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I134" t="inlineStr"/>
       <c r="J134" t="inlineStr"/>
@@ -4840,7 +4840,7 @@
         <v>-19022.58969361</v>
       </c>
       <c r="H135" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I135" t="inlineStr"/>
       <c r="J135" t="inlineStr"/>
@@ -4873,7 +4873,7 @@
         <v>-19022.58969361</v>
       </c>
       <c r="H136" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I136" t="inlineStr"/>
       <c r="J136" t="inlineStr"/>
@@ -4906,7 +4906,7 @@
         <v>-19037.30209361</v>
       </c>
       <c r="H137" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I137" t="inlineStr"/>
       <c r="J137" t="inlineStr"/>
@@ -4939,7 +4939,7 @@
         <v>-19037.30209361</v>
       </c>
       <c r="H138" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I138" t="inlineStr"/>
       <c r="J138" t="inlineStr"/>
@@ -4972,7 +4972,7 @@
         <v>-19037.30199361</v>
       </c>
       <c r="H139" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I139" t="inlineStr"/>
       <c r="J139" t="inlineStr"/>
@@ -5005,7 +5005,7 @@
         <v>-19026.01449361</v>
       </c>
       <c r="H140" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I140" t="inlineStr"/>
       <c r="J140" t="inlineStr"/>
@@ -5038,7 +5038,7 @@
         <v>-27597.28449361</v>
       </c>
       <c r="H141" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I141" t="inlineStr"/>
       <c r="J141" t="inlineStr"/>
@@ -5071,7 +5071,7 @@
         <v>-27216.67259361</v>
       </c>
       <c r="H142" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I142" t="inlineStr"/>
       <c r="J142" t="inlineStr"/>
@@ -5104,7 +5104,7 @@
         <v>-27216.67259361</v>
       </c>
       <c r="H143" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I143" t="inlineStr"/>
       <c r="J143" t="inlineStr"/>
@@ -5137,7 +5137,7 @@
         <v>-27217.67259361</v>
       </c>
       <c r="H144" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I144" t="inlineStr"/>
       <c r="J144" t="inlineStr"/>
@@ -5170,7 +5170,7 @@
         <v>-28441.89589361</v>
       </c>
       <c r="H145" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I145" t="inlineStr"/>
       <c r="J145" t="inlineStr"/>
@@ -5203,7 +5203,7 @@
         <v>-28441.89589361</v>
       </c>
       <c r="H146" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I146" t="inlineStr"/>
       <c r="J146" t="inlineStr"/>
@@ -5236,7 +5236,7 @@
         <v>-26671.43019361</v>
       </c>
       <c r="H147" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I147" t="inlineStr"/>
       <c r="J147" t="inlineStr"/>
@@ -5269,7 +5269,7 @@
         <v>-26671.43019361</v>
       </c>
       <c r="H148" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I148" t="inlineStr"/>
       <c r="J148" t="inlineStr"/>
@@ -5302,7 +5302,7 @@
         <v>-27392.54659361</v>
       </c>
       <c r="H149" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I149" t="inlineStr"/>
       <c r="J149" t="inlineStr"/>
@@ -5335,7 +5335,7 @@
         <v>-28393.54649361</v>
       </c>
       <c r="H150" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I150" t="inlineStr"/>
       <c r="J150" t="inlineStr"/>
@@ -5368,7 +5368,7 @@
         <v>-35819.70979361</v>
       </c>
       <c r="H151" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I151" t="inlineStr"/>
       <c r="J151" t="inlineStr"/>
@@ -5401,7 +5401,7 @@
         <v>-35819.70979361</v>
       </c>
       <c r="H152" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I152" t="inlineStr"/>
       <c r="J152" t="inlineStr"/>
@@ -5434,7 +5434,7 @@
         <v>-35818.00815477</v>
       </c>
       <c r="H153" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I153" t="inlineStr"/>
       <c r="J153" t="inlineStr"/>
@@ -5467,7 +5467,7 @@
         <v>-36837.00815477</v>
       </c>
       <c r="H154" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I154" t="inlineStr"/>
       <c r="J154" t="inlineStr"/>
@@ -5500,7 +5500,7 @@
         <v>-36837.00815477</v>
       </c>
       <c r="H155" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I155" t="inlineStr"/>
       <c r="J155" t="inlineStr"/>
@@ -5533,7 +5533,7 @@
         <v>-37617.00815477</v>
       </c>
       <c r="H156" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I156" t="inlineStr"/>
       <c r="J156" t="inlineStr"/>
@@ -5566,7 +5566,7 @@
         <v>-37617.00815477</v>
       </c>
       <c r="H157" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I157" t="inlineStr"/>
       <c r="J157" t="inlineStr"/>
@@ -5599,7 +5599,7 @@
         <v>-38239.92625477</v>
       </c>
       <c r="H158" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I158" t="inlineStr"/>
       <c r="J158" t="inlineStr"/>
@@ -5632,7 +5632,7 @@
         <v>-38239.92625477</v>
       </c>
       <c r="H159" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I159" t="inlineStr"/>
       <c r="J159" t="inlineStr"/>
@@ -5665,7 +5665,7 @@
         <v>-31637.49025477</v>
       </c>
       <c r="H160" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I160" t="inlineStr"/>
       <c r="J160" t="inlineStr"/>
@@ -5698,7 +5698,7 @@
         <v>-31637.49025477</v>
       </c>
       <c r="H161" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I161" t="inlineStr"/>
       <c r="J161" t="inlineStr"/>
@@ -5731,7 +5731,7 @@
         <v>-31637.49025477</v>
       </c>
       <c r="H162" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I162" t="inlineStr"/>
       <c r="J162" t="inlineStr"/>
@@ -5764,7 +5764,7 @@
         <v>-39584.31965477</v>
       </c>
       <c r="H163" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I163" t="inlineStr"/>
       <c r="J163" t="inlineStr"/>
@@ -5797,7 +5797,7 @@
         <v>-38965.39495477</v>
       </c>
       <c r="H164" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I164" t="inlineStr"/>
       <c r="J164" t="inlineStr"/>
@@ -5830,7 +5830,7 @@
         <v>-39168.39495477</v>
       </c>
       <c r="H165" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I165" t="inlineStr"/>
       <c r="J165" t="inlineStr"/>
@@ -5863,7 +5863,7 @@
         <v>-39168.39495477</v>
       </c>
       <c r="H166" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I166" t="inlineStr"/>
       <c r="J166" t="inlineStr"/>
@@ -5896,7 +5896,7 @@
         <v>-49636.98748328999</v>
       </c>
       <c r="H167" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I167" t="inlineStr"/>
       <c r="J167" t="inlineStr"/>
@@ -5929,7 +5929,7 @@
         <v>-49636.98748328999</v>
       </c>
       <c r="H168" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I168" t="inlineStr"/>
       <c r="J168" t="inlineStr"/>
@@ -5962,7 +5962,7 @@
         <v>-49636.98748328999</v>
       </c>
       <c r="H169" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I169" t="inlineStr"/>
       <c r="J169" t="inlineStr"/>
@@ -5995,7 +5995,7 @@
         <v>-49636.98748328999</v>
       </c>
       <c r="H170" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I170" t="inlineStr"/>
       <c r="J170" t="inlineStr"/>
@@ -7546,7 +7546,7 @@
         <v>-54361.64214782999</v>
       </c>
       <c r="H217" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I217" t="inlineStr"/>
       <c r="J217" t="inlineStr"/>
@@ -7612,7 +7612,7 @@
         <v>-53951.65284782999</v>
       </c>
       <c r="H219" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I219" t="inlineStr"/>
       <c r="J219" t="inlineStr"/>
@@ -7876,7 +7876,7 @@
         <v>-58562.76774782999</v>
       </c>
       <c r="H227" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I227" t="inlineStr"/>
       <c r="J227" t="inlineStr"/>
@@ -7909,7 +7909,7 @@
         <v>-58558.97964782999</v>
       </c>
       <c r="H228" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I228" t="inlineStr"/>
       <c r="J228" t="inlineStr"/>
@@ -7942,7 +7942,7 @@
         <v>-58231.88154782999</v>
       </c>
       <c r="H229" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I229" t="inlineStr"/>
       <c r="J229" t="inlineStr"/>
@@ -7975,7 +7975,7 @@
         <v>-58231.88154782999</v>
       </c>
       <c r="H230" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I230" t="inlineStr"/>
       <c r="J230" t="inlineStr"/>
@@ -8008,7 +8008,7 @@
         <v>-58231.88154782999</v>
       </c>
       <c r="H231" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I231" t="inlineStr"/>
       <c r="J231" t="inlineStr"/>
@@ -8041,7 +8041,7 @@
         <v>-58231.88154782999</v>
       </c>
       <c r="H232" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I232" t="inlineStr"/>
       <c r="J232" t="inlineStr"/>
@@ -8074,7 +8074,7 @@
         <v>-57902.82237897999</v>
       </c>
       <c r="H233" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I233" t="inlineStr"/>
       <c r="J233" t="inlineStr"/>
@@ -8107,7 +8107,7 @@
         <v>-57902.82237897999</v>
       </c>
       <c r="H234" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I234" t="inlineStr"/>
       <c r="J234" t="inlineStr"/>
@@ -8140,7 +8140,7 @@
         <v>-57902.82237897999</v>
       </c>
       <c r="H235" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I235" t="inlineStr"/>
       <c r="J235" t="inlineStr"/>
@@ -8173,7 +8173,7 @@
         <v>-57925.30707897999</v>
       </c>
       <c r="H236" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I236" t="inlineStr"/>
       <c r="J236" t="inlineStr"/>
@@ -8206,7 +8206,7 @@
         <v>-60344.07587897999</v>
       </c>
       <c r="H237" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I237" t="inlineStr"/>
       <c r="J237" t="inlineStr"/>
@@ -8239,7 +8239,7 @@
         <v>-60344.07587897999</v>
       </c>
       <c r="H238" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I238" t="inlineStr"/>
       <c r="J238" t="inlineStr"/>
@@ -8272,7 +8272,7 @@
         <v>-60344.07587897999</v>
       </c>
       <c r="H239" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I239" t="inlineStr"/>
       <c r="J239" t="inlineStr"/>
@@ -8536,7 +8536,7 @@
         <v>-58763.65643719999</v>
       </c>
       <c r="H247" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I247" t="inlineStr"/>
       <c r="J247" t="inlineStr"/>
@@ -8569,7 +8569,7 @@
         <v>-58621.81473719999</v>
       </c>
       <c r="H248" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I248" t="inlineStr"/>
       <c r="J248" t="inlineStr"/>
@@ -8602,7 +8602,7 @@
         <v>-58621.81473719999</v>
       </c>
       <c r="H249" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I249" t="inlineStr"/>
       <c r="J249" t="inlineStr"/>
@@ -8635,7 +8635,7 @@
         <v>-58621.81473719999</v>
       </c>
       <c r="H250" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I250" t="inlineStr"/>
       <c r="J250" t="inlineStr"/>
@@ -8668,7 +8668,7 @@
         <v>-59391.8146372</v>
       </c>
       <c r="H251" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I251" t="inlineStr"/>
       <c r="J251" t="inlineStr"/>
@@ -8899,7 +8899,7 @@
         <v>-68009.18933719999</v>
       </c>
       <c r="H258" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I258" t="inlineStr"/>
       <c r="J258" t="inlineStr"/>
@@ -8932,7 +8932,7 @@
         <v>-66416.84623719999</v>
       </c>
       <c r="H259" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I259" t="inlineStr"/>
       <c r="J259" t="inlineStr"/>
@@ -9064,7 +9064,7 @@
         <v>-63006.7240372</v>
       </c>
       <c r="H263" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I263" t="inlineStr"/>
       <c r="J263" t="inlineStr"/>
@@ -9097,7 +9097,7 @@
         <v>-61227.2240372</v>
       </c>
       <c r="H264" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I264" t="inlineStr"/>
       <c r="J264" t="inlineStr"/>
@@ -9130,7 +9130,7 @@
         <v>-61227.2240372</v>
       </c>
       <c r="H265" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I265" t="inlineStr"/>
       <c r="J265" t="inlineStr"/>
@@ -9163,7 +9163,7 @@
         <v>-61227.2240372</v>
       </c>
       <c r="H266" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I266" t="inlineStr"/>
       <c r="J266" t="inlineStr"/>
@@ -9196,7 +9196,7 @@
         <v>-61303.7240372</v>
       </c>
       <c r="H267" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I267" t="inlineStr"/>
       <c r="J267" t="inlineStr"/>
@@ -9328,7 +9328,7 @@
         <v>-61086.6399372</v>
       </c>
       <c r="H271" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I271" t="inlineStr"/>
       <c r="J271" t="inlineStr"/>
@@ -9361,7 +9361,7 @@
         <v>-62207.4911372</v>
       </c>
       <c r="H272" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I272" t="inlineStr"/>
       <c r="J272" t="inlineStr"/>
@@ -9394,7 +9394,7 @@
         <v>-61866.7033372</v>
       </c>
       <c r="H273" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I273" t="inlineStr"/>
       <c r="J273" t="inlineStr"/>
@@ -9427,7 +9427,7 @@
         <v>-66410.2045372</v>
       </c>
       <c r="H274" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I274" t="inlineStr"/>
       <c r="J274" t="inlineStr"/>
@@ -9460,7 +9460,7 @@
         <v>-66410.2045372</v>
       </c>
       <c r="H275" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I275" t="inlineStr"/>
       <c r="J275" t="inlineStr"/>
@@ -9493,7 +9493,7 @@
         <v>-66293.9984372</v>
       </c>
       <c r="H276" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I276" t="inlineStr"/>
       <c r="J276" t="inlineStr"/>
@@ -10483,7 +10483,7 @@
         <v>-73304.72424898001</v>
       </c>
       <c r="H306" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I306" t="inlineStr"/>
       <c r="J306" t="inlineStr"/>
@@ -10549,7 +10549,7 @@
         <v>-73632.83724898001</v>
       </c>
       <c r="H308" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I308" t="inlineStr"/>
       <c r="J308" t="inlineStr"/>
@@ -10615,7 +10615,7 @@
         <v>-75468.79330276001</v>
       </c>
       <c r="H310" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I310" t="inlineStr"/>
       <c r="J310" t="inlineStr"/>
@@ -11044,7 +11044,7 @@
         <v>-85256.50526649</v>
       </c>
       <c r="H323" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I323" t="inlineStr"/>
       <c r="J323" t="inlineStr"/>
@@ -11077,7 +11077,7 @@
         <v>-84937.40956648999</v>
       </c>
       <c r="H324" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I324" t="inlineStr"/>
       <c r="J324" t="inlineStr"/>
@@ -11110,7 +11110,7 @@
         <v>-84348.86376648999</v>
       </c>
       <c r="H325" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I325" t="inlineStr"/>
       <c r="J325" t="inlineStr"/>
@@ -11143,7 +11143,7 @@
         <v>-77498.13453711999</v>
       </c>
       <c r="H326" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I326" t="inlineStr"/>
       <c r="J326" t="inlineStr"/>
@@ -11176,7 +11176,7 @@
         <v>-77957.10323711998</v>
       </c>
       <c r="H327" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I327" t="inlineStr"/>
       <c r="J327" t="inlineStr"/>
@@ -11209,7 +11209,7 @@
         <v>-79647.15393711999</v>
       </c>
       <c r="H328" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I328" t="inlineStr"/>
       <c r="J328" t="inlineStr"/>
@@ -11242,7 +11242,7 @@
         <v>-79867.91473711999</v>
       </c>
       <c r="H329" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I329" t="inlineStr"/>
       <c r="J329" t="inlineStr"/>
@@ -11275,7 +11275,7 @@
         <v>-79867.91473711999</v>
       </c>
       <c r="H330" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I330" t="inlineStr"/>
       <c r="J330" t="inlineStr"/>
@@ -11308,7 +11308,7 @@
         <v>-80193.04273711999</v>
       </c>
       <c r="H331" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I331" t="inlineStr"/>
       <c r="J331" t="inlineStr"/>
@@ -11341,7 +11341,7 @@
         <v>-82904.91913711998</v>
       </c>
       <c r="H332" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I332" t="inlineStr"/>
       <c r="J332" t="inlineStr"/>
@@ -11374,7 +11374,7 @@
         <v>-82935.16873711998</v>
       </c>
       <c r="H333" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I333" t="inlineStr"/>
       <c r="J333" t="inlineStr"/>
@@ -11407,7 +11407,7 @@
         <v>-82883.15313711998</v>
       </c>
       <c r="H334" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I334" t="inlineStr"/>
       <c r="J334" t="inlineStr"/>
@@ -11473,7 +11473,7 @@
         <v>-84045.10883711997</v>
       </c>
       <c r="H336" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I336" t="inlineStr"/>
       <c r="J336" t="inlineStr"/>
@@ -11572,7 +11572,7 @@
         <v>-84839.17393711997</v>
       </c>
       <c r="H339" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I339" t="inlineStr"/>
       <c r="J339" t="inlineStr"/>
@@ -11605,7 +11605,7 @@
         <v>-85225.47773711996</v>
       </c>
       <c r="H340" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I340" t="inlineStr"/>
       <c r="J340" t="inlineStr"/>
@@ -11638,7 +11638,7 @@
         <v>-85225.47773711996</v>
       </c>
       <c r="H341" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I341" t="inlineStr"/>
       <c r="J341" t="inlineStr"/>
@@ -11671,7 +11671,7 @@
         <v>-83215.47773711996</v>
       </c>
       <c r="H342" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I342" t="inlineStr"/>
       <c r="J342" t="inlineStr"/>
@@ -11704,7 +11704,7 @@
         <v>-84521.47913711995</v>
       </c>
       <c r="H343" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I343" t="inlineStr"/>
       <c r="J343" t="inlineStr"/>
@@ -11737,7 +11737,7 @@
         <v>-84521.47913711995</v>
       </c>
       <c r="H344" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I344" t="inlineStr"/>
       <c r="J344" t="inlineStr"/>
@@ -11770,7 +11770,7 @@
         <v>-86101.86977695995</v>
       </c>
       <c r="H345" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I345" t="inlineStr"/>
       <c r="J345" t="inlineStr"/>
@@ -11803,7 +11803,7 @@
         <v>-86101.86977695995</v>
       </c>
       <c r="H346" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I346" t="inlineStr"/>
       <c r="J346" t="inlineStr"/>
@@ -11836,7 +11836,7 @@
         <v>-86101.86977695995</v>
       </c>
       <c r="H347" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I347" t="inlineStr"/>
       <c r="J347" t="inlineStr"/>
@@ -11869,7 +11869,7 @@
         <v>-85235.88517695996</v>
       </c>
       <c r="H348" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I348" t="inlineStr"/>
       <c r="J348" t="inlineStr"/>
@@ -11902,7 +11902,7 @@
         <v>-84485.88517695996</v>
       </c>
       <c r="H349" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I349" t="inlineStr"/>
       <c r="J349" t="inlineStr"/>
@@ -11935,7 +11935,7 @@
         <v>-84994.32907695996</v>
       </c>
       <c r="H350" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I350" t="inlineStr"/>
       <c r="J350" t="inlineStr"/>
@@ -11968,7 +11968,7 @@
         <v>-84262.61937695995</v>
       </c>
       <c r="H351" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I351" t="inlineStr"/>
       <c r="J351" t="inlineStr"/>
@@ -12001,7 +12001,7 @@
         <v>-84757.35327695996</v>
       </c>
       <c r="H352" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I352" t="inlineStr"/>
       <c r="J352" t="inlineStr"/>
@@ -12034,7 +12034,7 @@
         <v>-86180.65707695995</v>
       </c>
       <c r="H353" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I353" t="inlineStr"/>
       <c r="J353" t="inlineStr"/>
@@ -12067,7 +12067,7 @@
         <v>-86889.80520158994</v>
       </c>
       <c r="H354" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I354" t="inlineStr"/>
       <c r="J354" t="inlineStr"/>
@@ -12100,7 +12100,7 @@
         <v>-89611.05030158994</v>
       </c>
       <c r="H355" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I355" t="inlineStr"/>
       <c r="J355" t="inlineStr"/>
@@ -12661,11 +12661,17 @@
         <v>-96825.59400158993</v>
       </c>
       <c r="H372" t="n">
-        <v>0</v>
-      </c>
-      <c r="I372" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I372" t="n">
+        <v>624</v>
+      </c>
       <c r="J372" t="inlineStr"/>
-      <c r="K372" t="inlineStr"/>
+      <c r="K372" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="L372" t="n">
         <v>1</v>
       </c>
@@ -12698,7 +12704,11 @@
       </c>
       <c r="I373" t="inlineStr"/>
       <c r="J373" t="inlineStr"/>
-      <c r="K373" t="inlineStr"/>
+      <c r="K373" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L373" t="n">
         <v>1</v>
       </c>
@@ -12731,7 +12741,11 @@
       </c>
       <c r="I374" t="inlineStr"/>
       <c r="J374" t="inlineStr"/>
-      <c r="K374" t="inlineStr"/>
+      <c r="K374" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L374" t="n">
         <v>1</v>
       </c>
@@ -12764,7 +12778,11 @@
       </c>
       <c r="I375" t="inlineStr"/>
       <c r="J375" t="inlineStr"/>
-      <c r="K375" t="inlineStr"/>
+      <c r="K375" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L375" t="n">
         <v>1</v>
       </c>
@@ -12797,7 +12815,11 @@
       </c>
       <c r="I376" t="inlineStr"/>
       <c r="J376" t="inlineStr"/>
-      <c r="K376" t="inlineStr"/>
+      <c r="K376" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L376" t="n">
         <v>1</v>
       </c>
@@ -12830,7 +12852,11 @@
       </c>
       <c r="I377" t="inlineStr"/>
       <c r="J377" t="inlineStr"/>
-      <c r="K377" t="inlineStr"/>
+      <c r="K377" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L377" t="n">
         <v>1</v>
       </c>
@@ -12863,7 +12889,11 @@
       </c>
       <c r="I378" t="inlineStr"/>
       <c r="J378" t="inlineStr"/>
-      <c r="K378" t="inlineStr"/>
+      <c r="K378" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L378" t="n">
         <v>1</v>
       </c>
@@ -12896,7 +12926,11 @@
       </c>
       <c r="I379" t="inlineStr"/>
       <c r="J379" t="inlineStr"/>
-      <c r="K379" t="inlineStr"/>
+      <c r="K379" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L379" t="n">
         <v>1</v>
       </c>
@@ -12929,7 +12963,11 @@
       </c>
       <c r="I380" t="inlineStr"/>
       <c r="J380" t="inlineStr"/>
-      <c r="K380" t="inlineStr"/>
+      <c r="K380" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L380" t="n">
         <v>1</v>
       </c>
@@ -12962,7 +13000,11 @@
       </c>
       <c r="I381" t="inlineStr"/>
       <c r="J381" t="inlineStr"/>
-      <c r="K381" t="inlineStr"/>
+      <c r="K381" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L381" t="n">
         <v>1</v>
       </c>
@@ -12995,7 +13037,11 @@
       </c>
       <c r="I382" t="inlineStr"/>
       <c r="J382" t="inlineStr"/>
-      <c r="K382" t="inlineStr"/>
+      <c r="K382" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L382" t="n">
         <v>1</v>
       </c>
@@ -13028,7 +13074,11 @@
       </c>
       <c r="I383" t="inlineStr"/>
       <c r="J383" t="inlineStr"/>
-      <c r="K383" t="inlineStr"/>
+      <c r="K383" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L383" t="n">
         <v>1</v>
       </c>
@@ -13061,7 +13111,11 @@
       </c>
       <c r="I384" t="inlineStr"/>
       <c r="J384" t="inlineStr"/>
-      <c r="K384" t="inlineStr"/>
+      <c r="K384" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L384" t="n">
         <v>1</v>
       </c>
@@ -13094,7 +13148,11 @@
       </c>
       <c r="I385" t="inlineStr"/>
       <c r="J385" t="inlineStr"/>
-      <c r="K385" t="inlineStr"/>
+      <c r="K385" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L385" t="n">
         <v>1</v>
       </c>
@@ -13127,7 +13185,11 @@
       </c>
       <c r="I386" t="inlineStr"/>
       <c r="J386" t="inlineStr"/>
-      <c r="K386" t="inlineStr"/>
+      <c r="K386" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L386" t="n">
         <v>1</v>
       </c>
@@ -13160,7 +13222,11 @@
       </c>
       <c r="I387" t="inlineStr"/>
       <c r="J387" t="inlineStr"/>
-      <c r="K387" t="inlineStr"/>
+      <c r="K387" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L387" t="n">
         <v>1</v>
       </c>
@@ -13193,7 +13259,11 @@
       </c>
       <c r="I388" t="inlineStr"/>
       <c r="J388" t="inlineStr"/>
-      <c r="K388" t="inlineStr"/>
+      <c r="K388" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L388" t="n">
         <v>1</v>
       </c>
@@ -13226,7 +13296,11 @@
       </c>
       <c r="I389" t="inlineStr"/>
       <c r="J389" t="inlineStr"/>
-      <c r="K389" t="inlineStr"/>
+      <c r="K389" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L389" t="n">
         <v>1</v>
       </c>
@@ -13259,7 +13333,11 @@
       </c>
       <c r="I390" t="inlineStr"/>
       <c r="J390" t="inlineStr"/>
-      <c r="K390" t="inlineStr"/>
+      <c r="K390" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L390" t="n">
         <v>1</v>
       </c>
@@ -13292,7 +13370,11 @@
       </c>
       <c r="I391" t="inlineStr"/>
       <c r="J391" t="inlineStr"/>
-      <c r="K391" t="inlineStr"/>
+      <c r="K391" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L391" t="n">
         <v>1</v>
       </c>
@@ -13321,11 +13403,17 @@
         <v>-104468.2348015899</v>
       </c>
       <c r="H392" t="n">
-        <v>0</v>
-      </c>
-      <c r="I392" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I392" t="n">
+        <v>622.6</v>
+      </c>
       <c r="J392" t="inlineStr"/>
-      <c r="K392" t="inlineStr"/>
+      <c r="K392" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L392" t="n">
         <v>1</v>
       </c>
@@ -13358,7 +13446,11 @@
       </c>
       <c r="I393" t="inlineStr"/>
       <c r="J393" t="inlineStr"/>
-      <c r="K393" t="inlineStr"/>
+      <c r="K393" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L393" t="n">
         <v>1</v>
       </c>
@@ -13391,7 +13483,11 @@
       </c>
       <c r="I394" t="inlineStr"/>
       <c r="J394" t="inlineStr"/>
-      <c r="K394" t="inlineStr"/>
+      <c r="K394" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L394" t="n">
         <v>1</v>
       </c>
@@ -13424,7 +13520,11 @@
       </c>
       <c r="I395" t="inlineStr"/>
       <c r="J395" t="inlineStr"/>
-      <c r="K395" t="inlineStr"/>
+      <c r="K395" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L395" t="n">
         <v>1</v>
       </c>
@@ -13453,15 +13553,13 @@
         <v>-106943.7039015899</v>
       </c>
       <c r="H396" t="n">
-        <v>1</v>
-      </c>
-      <c r="I396" t="n">
-        <v>619.7</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I396" t="inlineStr"/>
       <c r="J396" t="inlineStr"/>
       <c r="K396" t="inlineStr">
         <is>
-          <t>매수 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L396" t="n">
@@ -13492,11 +13590,9 @@
         <v>-105171.9348015899</v>
       </c>
       <c r="H397" t="n">
-        <v>1</v>
-      </c>
-      <c r="I397" t="n">
-        <v>618.9</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I397" t="inlineStr"/>
       <c r="J397" t="inlineStr"/>
       <c r="K397" t="inlineStr">
         <is>
@@ -13531,11 +13627,9 @@
         <v>-102777.5946015899</v>
       </c>
       <c r="H398" t="n">
-        <v>1</v>
-      </c>
-      <c r="I398" t="n">
-        <v>620.3</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I398" t="inlineStr"/>
       <c r="J398" t="inlineStr"/>
       <c r="K398" t="inlineStr">
         <is>
@@ -13570,11 +13664,9 @@
         <v>-98460.40030158991</v>
       </c>
       <c r="H399" t="n">
-        <v>1</v>
-      </c>
-      <c r="I399" t="n">
-        <v>620.7</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I399" t="inlineStr"/>
       <c r="J399" t="inlineStr"/>
       <c r="K399" t="inlineStr">
         <is>
@@ -13609,11 +13701,9 @@
         <v>-98548.3003015899</v>
       </c>
       <c r="H400" t="n">
-        <v>1</v>
-      </c>
-      <c r="I400" t="n">
-        <v>623.8</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I400" t="inlineStr"/>
       <c r="J400" t="inlineStr"/>
       <c r="K400" t="inlineStr">
         <is>
@@ -13648,11 +13738,9 @@
         <v>-98548.3003015899</v>
       </c>
       <c r="H401" t="n">
-        <v>1</v>
-      </c>
-      <c r="I401" t="n">
-        <v>617</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I401" t="inlineStr"/>
       <c r="J401" t="inlineStr"/>
       <c r="K401" t="inlineStr">
         <is>
@@ -13687,11 +13775,9 @@
         <v>-98548.3003015899</v>
       </c>
       <c r="H402" t="n">
-        <v>1</v>
-      </c>
-      <c r="I402" t="n">
-        <v>617</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I402" t="inlineStr"/>
       <c r="J402" t="inlineStr"/>
       <c r="K402" t="inlineStr">
         <is>
@@ -13726,11 +13812,9 @@
         <v>-101698.9990015899</v>
       </c>
       <c r="H403" t="n">
-        <v>1</v>
-      </c>
-      <c r="I403" t="n">
-        <v>617</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I403" t="inlineStr"/>
       <c r="J403" t="inlineStr"/>
       <c r="K403" t="inlineStr">
         <is>
@@ -13919,11 +14003,9 @@
         <v>-103126.0067015899</v>
       </c>
       <c r="H408" t="n">
-        <v>1</v>
-      </c>
-      <c r="I408" t="n">
-        <v>620.9</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I408" t="inlineStr"/>
       <c r="J408" t="inlineStr"/>
       <c r="K408" t="inlineStr">
         <is>
@@ -13958,11 +14040,9 @@
         <v>-101953.6360015899</v>
       </c>
       <c r="H409" t="n">
-        <v>1</v>
-      </c>
-      <c r="I409" t="n">
-        <v>621</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I409" t="inlineStr"/>
       <c r="J409" t="inlineStr"/>
       <c r="K409" t="inlineStr">
         <is>
@@ -14071,11 +14151,9 @@
         <v>-101953.6360015899</v>
       </c>
       <c r="H412" t="n">
-        <v>1</v>
-      </c>
-      <c r="I412" t="n">
-        <v>621.4</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I412" t="inlineStr"/>
       <c r="J412" t="inlineStr"/>
       <c r="K412" t="inlineStr">
         <is>
@@ -14110,11 +14188,9 @@
         <v>-101953.6360015899</v>
       </c>
       <c r="H413" t="n">
-        <v>1</v>
-      </c>
-      <c r="I413" t="n">
-        <v>621.4</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I413" t="inlineStr"/>
       <c r="J413" t="inlineStr"/>
       <c r="K413" t="inlineStr">
         <is>
@@ -14223,11 +14299,9 @@
         <v>-104003.6360015899</v>
       </c>
       <c r="H416" t="n">
-        <v>1</v>
-      </c>
-      <c r="I416" t="n">
-        <v>621.4</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I416" t="inlineStr"/>
       <c r="J416" t="inlineStr"/>
       <c r="K416" t="inlineStr">
         <is>
@@ -14262,11 +14336,9 @@
         <v>-97580.18030158989</v>
       </c>
       <c r="H417" t="n">
-        <v>1</v>
-      </c>
-      <c r="I417" t="n">
-        <v>618.2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I417" t="inlineStr"/>
       <c r="J417" t="inlineStr"/>
       <c r="K417" t="inlineStr">
         <is>
@@ -14375,11 +14447,9 @@
         <v>-92182.18030158989</v>
       </c>
       <c r="H420" t="n">
-        <v>1</v>
-      </c>
-      <c r="I420" t="n">
-        <v>621.3</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I420" t="inlineStr"/>
       <c r="J420" t="inlineStr"/>
       <c r="K420" t="inlineStr">
         <is>
@@ -14562,11 +14632,9 @@
         <v>-87446.46920158989</v>
       </c>
       <c r="H425" t="n">
-        <v>1</v>
-      </c>
-      <c r="I425" t="n">
-        <v>621.4</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I425" t="inlineStr"/>
       <c r="J425" t="inlineStr"/>
       <c r="K425" t="inlineStr">
         <is>
@@ -15489,11 +15557,9 @@
         <v>-82685.37570158989</v>
       </c>
       <c r="H450" t="n">
-        <v>1</v>
-      </c>
-      <c r="I450" t="n">
-        <v>617</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I450" t="inlineStr"/>
       <c r="J450" t="inlineStr"/>
       <c r="K450" t="inlineStr">
         <is>
@@ -15528,11 +15594,9 @@
         <v>-82685.37570158989</v>
       </c>
       <c r="H451" t="n">
-        <v>1</v>
-      </c>
-      <c r="I451" t="n">
-        <v>616.9</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I451" t="inlineStr"/>
       <c r="J451" t="inlineStr"/>
       <c r="K451" t="inlineStr">
         <is>
@@ -15758,9 +15822,11 @@
         <v>-87339.89040158989</v>
       </c>
       <c r="H457" t="n">
-        <v>0</v>
-      </c>
-      <c r="I457" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I457" t="n">
+        <v>613</v>
+      </c>
       <c r="J457" t="inlineStr"/>
       <c r="K457" t="inlineStr">
         <is>
@@ -16046,6 +16112,6 @@
       <c r="M464" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/BackTest/2020-01-24 BackTest BCD.xlsx
+++ b/BackTest/2020-01-24 BackTest BCD.xlsx
@@ -484,7 +484,7 @@
         <v>12639.59057786</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
@@ -517,7 +517,7 @@
         <v>14105.32307786</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I4" t="inlineStr"/>
       <c r="J4" t="inlineStr"/>
@@ -550,7 +550,7 @@
         <v>14178.42917786</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I5" t="inlineStr"/>
       <c r="J5" t="inlineStr"/>
@@ -583,7 +583,7 @@
         <v>14178.42917786</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I6" t="inlineStr"/>
       <c r="J6" t="inlineStr"/>
@@ -616,7 +616,7 @@
         <v>12178.42917786</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I7" t="inlineStr"/>
       <c r="J7" t="inlineStr"/>
@@ -649,7 +649,7 @@
         <v>12403.02917786</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I8" t="inlineStr"/>
       <c r="J8" t="inlineStr"/>
@@ -682,7 +682,7 @@
         <v>12403.02917786</v>
       </c>
       <c r="H9" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I9" t="inlineStr"/>
       <c r="J9" t="inlineStr"/>
@@ -715,7 +715,7 @@
         <v>12552.02917786</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I10" t="inlineStr"/>
       <c r="J10" t="inlineStr"/>
@@ -748,7 +748,7 @@
         <v>12552.02917786</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I11" t="inlineStr"/>
       <c r="J11" t="inlineStr"/>
@@ -781,7 +781,7 @@
         <v>12732.53937786</v>
       </c>
       <c r="H12" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I12" t="inlineStr"/>
       <c r="J12" t="inlineStr"/>
@@ -814,7 +814,7 @@
         <v>15465.29027786</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I13" t="inlineStr"/>
       <c r="J13" t="inlineStr"/>
@@ -847,7 +847,7 @@
         <v>15457.43697786</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I14" t="inlineStr"/>
       <c r="J14" t="inlineStr"/>
@@ -880,7 +880,7 @@
         <v>15756.50297786</v>
       </c>
       <c r="H15" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I15" t="inlineStr"/>
       <c r="J15" t="inlineStr"/>
@@ -913,7 +913,7 @@
         <v>15205.10297786</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I16" t="inlineStr"/>
       <c r="J16" t="inlineStr"/>
@@ -946,7 +946,7 @@
         <v>14937.63027786</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I17" t="inlineStr"/>
       <c r="J17" t="inlineStr"/>
@@ -979,7 +979,7 @@
         <v>14675.49487786</v>
       </c>
       <c r="H18" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I18" t="inlineStr"/>
       <c r="J18" t="inlineStr"/>
@@ -1012,7 +1012,7 @@
         <v>11934.89067786</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I19" t="inlineStr"/>
       <c r="J19" t="inlineStr"/>
@@ -1045,7 +1045,7 @@
         <v>12036.49307786</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I20" t="inlineStr"/>
       <c r="J20" t="inlineStr"/>
@@ -1078,7 +1078,7 @@
         <v>12061.74327786</v>
       </c>
       <c r="H21" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I21" t="inlineStr"/>
       <c r="J21" t="inlineStr"/>
@@ -1111,7 +1111,7 @@
         <v>12051.74327786</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I22" t="inlineStr"/>
       <c r="J22" t="inlineStr"/>
@@ -1144,7 +1144,7 @@
         <v>12276.81077786</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I23" t="inlineStr"/>
       <c r="J23" t="inlineStr"/>
@@ -1177,7 +1177,7 @@
         <v>12203.70467786</v>
       </c>
       <c r="H24" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I24" t="inlineStr"/>
       <c r="J24" t="inlineStr"/>
@@ -1210,7 +1210,7 @@
         <v>12254.30457786</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I25" t="inlineStr"/>
       <c r="J25" t="inlineStr"/>
@@ -1243,7 +1243,7 @@
         <v>12300.39407786</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I26" t="inlineStr"/>
       <c r="J26" t="inlineStr"/>
@@ -1408,7 +1408,7 @@
         <v>11968.67047786</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I31" t="inlineStr"/>
       <c r="J31" t="inlineStr"/>
@@ -1474,7 +1474,7 @@
         <v>11968.67047786</v>
       </c>
       <c r="H33" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I33" t="inlineStr"/>
       <c r="J33" t="inlineStr"/>
@@ -1507,7 +1507,7 @@
         <v>12037.59567786</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I34" t="inlineStr"/>
       <c r="J34" t="inlineStr"/>
@@ -1540,7 +1540,7 @@
         <v>11899.79567786</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I35" t="inlineStr"/>
       <c r="J35" t="inlineStr"/>
@@ -1573,7 +1573,7 @@
         <v>11562.16577786</v>
       </c>
       <c r="H36" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I36" t="inlineStr"/>
       <c r="J36" t="inlineStr"/>
@@ -1606,7 +1606,7 @@
         <v>11563.16577786</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I37" t="inlineStr"/>
       <c r="J37" t="inlineStr"/>
@@ -1639,7 +1639,7 @@
         <v>11399.33617786</v>
       </c>
       <c r="H38" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I38" t="inlineStr"/>
       <c r="J38" t="inlineStr"/>
@@ -1672,7 +1672,7 @@
         <v>11399.33617786</v>
       </c>
       <c r="H39" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I39" t="inlineStr"/>
       <c r="J39" t="inlineStr"/>
@@ -1705,7 +1705,7 @@
         <v>11193.89497786</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I40" t="inlineStr"/>
       <c r="J40" t="inlineStr"/>
@@ -1738,7 +1738,7 @@
         <v>10642.72967786</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I41" t="inlineStr"/>
       <c r="J41" t="inlineStr"/>
@@ -1771,7 +1771,7 @@
         <v>8007.10477786</v>
       </c>
       <c r="H42" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I42" t="inlineStr"/>
       <c r="J42" t="inlineStr"/>
@@ -2728,7 +2728,7 @@
         <v>7646.752106390002</v>
       </c>
       <c r="H71" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I71" t="inlineStr"/>
       <c r="J71" t="inlineStr"/>
@@ -2761,7 +2761,7 @@
         <v>7970.188006390003</v>
       </c>
       <c r="H72" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I72" t="inlineStr"/>
       <c r="J72" t="inlineStr"/>
@@ -2794,7 +2794,7 @@
         <v>7940.095406390003</v>
       </c>
       <c r="H73" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I73" t="inlineStr"/>
       <c r="J73" t="inlineStr"/>
@@ -2827,7 +2827,7 @@
         <v>7569.095406390003</v>
       </c>
       <c r="H74" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I74" t="inlineStr"/>
       <c r="J74" t="inlineStr"/>
@@ -2992,7 +2992,7 @@
         <v>8888.788906390004</v>
       </c>
       <c r="H79" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I79" t="inlineStr"/>
       <c r="J79" t="inlineStr"/>
@@ -3025,7 +3025,7 @@
         <v>8586.403506390005</v>
       </c>
       <c r="H80" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I80" t="inlineStr"/>
       <c r="J80" t="inlineStr"/>
@@ -3058,7 +3058,7 @@
         <v>9139.848006390004</v>
       </c>
       <c r="H81" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I81" t="inlineStr"/>
       <c r="J81" t="inlineStr"/>
@@ -3091,7 +3091,7 @@
         <v>9850.610806390005</v>
       </c>
       <c r="H82" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I82" t="inlineStr"/>
       <c r="J82" t="inlineStr"/>
@@ -3124,7 +3124,7 @@
         <v>9850.610806390005</v>
       </c>
       <c r="H83" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I83" t="inlineStr"/>
       <c r="J83" t="inlineStr"/>
@@ -3157,7 +3157,7 @@
         <v>9825.797306390004</v>
       </c>
       <c r="H84" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I84" t="inlineStr"/>
       <c r="J84" t="inlineStr"/>
@@ -3190,7 +3190,7 @@
         <v>9825.797306390004</v>
       </c>
       <c r="H85" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I85" t="inlineStr"/>
       <c r="J85" t="inlineStr"/>
@@ -3223,7 +3223,7 @@
         <v>9905.911306390004</v>
       </c>
       <c r="H86" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I86" t="inlineStr"/>
       <c r="J86" t="inlineStr"/>
@@ -3256,7 +3256,7 @@
         <v>9857.911306390004</v>
       </c>
       <c r="H87" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I87" t="inlineStr"/>
       <c r="J87" t="inlineStr"/>
@@ -3289,7 +3289,7 @@
         <v>10299.10430639</v>
       </c>
       <c r="H88" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I88" t="inlineStr"/>
       <c r="J88" t="inlineStr"/>
@@ -3322,7 +3322,7 @@
         <v>10447.96610639</v>
       </c>
       <c r="H89" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I89" t="inlineStr"/>
       <c r="J89" t="inlineStr"/>
@@ -3355,7 +3355,7 @@
         <v>10447.96610639</v>
       </c>
       <c r="H90" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I90" t="inlineStr"/>
       <c r="J90" t="inlineStr"/>
@@ -3388,7 +3388,7 @@
         <v>7665.268606390004</v>
       </c>
       <c r="H91" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I91" t="inlineStr"/>
       <c r="J91" t="inlineStr"/>
@@ -3421,7 +3421,7 @@
         <v>7665.268606390004</v>
       </c>
       <c r="H92" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I92" t="inlineStr"/>
       <c r="J92" t="inlineStr"/>
@@ -3454,7 +3454,7 @@
         <v>7665.268606390004</v>
       </c>
       <c r="H93" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I93" t="inlineStr"/>
       <c r="J93" t="inlineStr"/>
@@ -3487,7 +3487,7 @@
         <v>7665.268606390004</v>
       </c>
       <c r="H94" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I94" t="inlineStr"/>
       <c r="J94" t="inlineStr"/>
@@ -3520,7 +3520,7 @@
         <v>7662.869006390004</v>
       </c>
       <c r="H95" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I95" t="inlineStr"/>
       <c r="J95" t="inlineStr"/>
@@ -3553,7 +3553,7 @@
         <v>7669.518714600004</v>
       </c>
       <c r="H96" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I96" t="inlineStr"/>
       <c r="J96" t="inlineStr"/>
@@ -3586,7 +3586,7 @@
         <v>10905.85240639</v>
       </c>
       <c r="H97" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I97" t="inlineStr"/>
       <c r="J97" t="inlineStr"/>
@@ -3619,7 +3619,7 @@
         <v>11494.59880639</v>
       </c>
       <c r="H98" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I98" t="inlineStr"/>
       <c r="J98" t="inlineStr"/>
@@ -3652,7 +3652,7 @@
         <v>11494.59880639</v>
       </c>
       <c r="H99" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I99" t="inlineStr"/>
       <c r="J99" t="inlineStr"/>
@@ -3685,7 +3685,7 @@
         <v>11494.59880639</v>
       </c>
       <c r="H100" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I100" t="inlineStr"/>
       <c r="J100" t="inlineStr"/>
@@ -3718,7 +3718,7 @@
         <v>9474.041606390005</v>
       </c>
       <c r="H101" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I101" t="inlineStr"/>
       <c r="J101" t="inlineStr"/>
@@ -3751,7 +3751,7 @@
         <v>7143.495906390004</v>
       </c>
       <c r="H102" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I102" t="inlineStr"/>
       <c r="J102" t="inlineStr"/>
@@ -3784,7 +3784,7 @@
         <v>7207.053306390004</v>
       </c>
       <c r="H103" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I103" t="inlineStr"/>
       <c r="J103" t="inlineStr"/>
@@ -3817,7 +3817,7 @@
         <v>6052.941206390004</v>
       </c>
       <c r="H104" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I104" t="inlineStr"/>
       <c r="J104" t="inlineStr"/>
@@ -3850,7 +3850,7 @@
         <v>6197.382906390004</v>
       </c>
       <c r="H105" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I105" t="inlineStr"/>
       <c r="J105" t="inlineStr"/>
@@ -3883,7 +3883,7 @@
         <v>6197.382906390004</v>
       </c>
       <c r="H106" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I106" t="inlineStr"/>
       <c r="J106" t="inlineStr"/>
@@ -3916,7 +3916,7 @@
         <v>6197.382906390004</v>
       </c>
       <c r="H107" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I107" t="inlineStr"/>
       <c r="J107" t="inlineStr"/>
@@ -3949,7 +3949,7 @@
         <v>4197.382906390004</v>
       </c>
       <c r="H108" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I108" t="inlineStr"/>
       <c r="J108" t="inlineStr"/>
@@ -3982,7 +3982,7 @@
         <v>4198.136006390004</v>
       </c>
       <c r="H109" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I109" t="inlineStr"/>
       <c r="J109" t="inlineStr"/>
@@ -4015,7 +4015,7 @@
         <v>4198.136006390004</v>
       </c>
       <c r="H110" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I110" t="inlineStr"/>
       <c r="J110" t="inlineStr"/>
@@ -4048,7 +4048,7 @@
         <v>4107.735406390004</v>
       </c>
       <c r="H111" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I111" t="inlineStr"/>
       <c r="J111" t="inlineStr"/>
@@ -4081,7 +4081,7 @@
         <v>4107.735406390004</v>
       </c>
       <c r="H112" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I112" t="inlineStr"/>
       <c r="J112" t="inlineStr"/>
@@ -4114,7 +4114,7 @@
         <v>4043.612006390004</v>
       </c>
       <c r="H113" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I113" t="inlineStr"/>
       <c r="J113" t="inlineStr"/>
@@ -4147,7 +4147,7 @@
         <v>-936.9621936099961</v>
       </c>
       <c r="H114" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I114" t="inlineStr"/>
       <c r="J114" t="inlineStr"/>
@@ -4246,7 +4246,7 @@
         <v>-988.0761936099962</v>
       </c>
       <c r="H117" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I117" t="inlineStr"/>
       <c r="J117" t="inlineStr"/>
@@ -4312,7 +4312,7 @@
         <v>-1009.285893609996</v>
       </c>
       <c r="H119" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I119" t="inlineStr"/>
       <c r="J119" t="inlineStr"/>
@@ -4345,7 +4345,7 @@
         <v>-2267.396393609996</v>
       </c>
       <c r="H120" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I120" t="inlineStr"/>
       <c r="J120" t="inlineStr"/>
@@ -7546,7 +7546,7 @@
         <v>-54361.64214782999</v>
       </c>
       <c r="H217" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I217" t="inlineStr"/>
       <c r="J217" t="inlineStr"/>
@@ -7612,7 +7612,7 @@
         <v>-53951.65284782999</v>
       </c>
       <c r="H219" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I219" t="inlineStr"/>
       <c r="J219" t="inlineStr"/>
@@ -7876,7 +7876,7 @@
         <v>-58562.76774782999</v>
       </c>
       <c r="H227" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I227" t="inlineStr"/>
       <c r="J227" t="inlineStr"/>
@@ -7909,7 +7909,7 @@
         <v>-58558.97964782999</v>
       </c>
       <c r="H228" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I228" t="inlineStr"/>
       <c r="J228" t="inlineStr"/>
@@ -7942,7 +7942,7 @@
         <v>-58231.88154782999</v>
       </c>
       <c r="H229" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I229" t="inlineStr"/>
       <c r="J229" t="inlineStr"/>
@@ -7975,7 +7975,7 @@
         <v>-58231.88154782999</v>
       </c>
       <c r="H230" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I230" t="inlineStr"/>
       <c r="J230" t="inlineStr"/>
@@ -8008,7 +8008,7 @@
         <v>-58231.88154782999</v>
       </c>
       <c r="H231" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I231" t="inlineStr"/>
       <c r="J231" t="inlineStr"/>
@@ -8041,7 +8041,7 @@
         <v>-58231.88154782999</v>
       </c>
       <c r="H232" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I232" t="inlineStr"/>
       <c r="J232" t="inlineStr"/>
@@ -8074,7 +8074,7 @@
         <v>-57902.82237897999</v>
       </c>
       <c r="H233" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I233" t="inlineStr"/>
       <c r="J233" t="inlineStr"/>
@@ -8107,7 +8107,7 @@
         <v>-57902.82237897999</v>
       </c>
       <c r="H234" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I234" t="inlineStr"/>
       <c r="J234" t="inlineStr"/>
@@ -8140,7 +8140,7 @@
         <v>-57902.82237897999</v>
       </c>
       <c r="H235" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I235" t="inlineStr"/>
       <c r="J235" t="inlineStr"/>
@@ -8173,7 +8173,7 @@
         <v>-57925.30707897999</v>
       </c>
       <c r="H236" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I236" t="inlineStr"/>
       <c r="J236" t="inlineStr"/>
@@ -8206,7 +8206,7 @@
         <v>-60344.07587897999</v>
       </c>
       <c r="H237" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I237" t="inlineStr"/>
       <c r="J237" t="inlineStr"/>
@@ -8239,7 +8239,7 @@
         <v>-60344.07587897999</v>
       </c>
       <c r="H238" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I238" t="inlineStr"/>
       <c r="J238" t="inlineStr"/>
@@ -8272,7 +8272,7 @@
         <v>-60344.07587897999</v>
       </c>
       <c r="H239" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I239" t="inlineStr"/>
       <c r="J239" t="inlineStr"/>
@@ -8536,7 +8536,7 @@
         <v>-58763.65643719999</v>
       </c>
       <c r="H247" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I247" t="inlineStr"/>
       <c r="J247" t="inlineStr"/>
@@ -8569,7 +8569,7 @@
         <v>-58621.81473719999</v>
       </c>
       <c r="H248" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I248" t="inlineStr"/>
       <c r="J248" t="inlineStr"/>
@@ -8602,7 +8602,7 @@
         <v>-58621.81473719999</v>
       </c>
       <c r="H249" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I249" t="inlineStr"/>
       <c r="J249" t="inlineStr"/>
@@ -8635,7 +8635,7 @@
         <v>-58621.81473719999</v>
       </c>
       <c r="H250" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I250" t="inlineStr"/>
       <c r="J250" t="inlineStr"/>
@@ -8668,7 +8668,7 @@
         <v>-59391.8146372</v>
       </c>
       <c r="H251" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I251" t="inlineStr"/>
       <c r="J251" t="inlineStr"/>
@@ -8899,7 +8899,7 @@
         <v>-68009.18933719999</v>
       </c>
       <c r="H258" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I258" t="inlineStr"/>
       <c r="J258" t="inlineStr"/>
@@ -8932,7 +8932,7 @@
         <v>-66416.84623719999</v>
       </c>
       <c r="H259" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I259" t="inlineStr"/>
       <c r="J259" t="inlineStr"/>
@@ -9064,7 +9064,7 @@
         <v>-63006.7240372</v>
       </c>
       <c r="H263" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I263" t="inlineStr"/>
       <c r="J263" t="inlineStr"/>
@@ -9097,7 +9097,7 @@
         <v>-61227.2240372</v>
       </c>
       <c r="H264" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I264" t="inlineStr"/>
       <c r="J264" t="inlineStr"/>
@@ -9130,7 +9130,7 @@
         <v>-61227.2240372</v>
       </c>
       <c r="H265" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I265" t="inlineStr"/>
       <c r="J265" t="inlineStr"/>
@@ -9163,7 +9163,7 @@
         <v>-61227.2240372</v>
       </c>
       <c r="H266" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I266" t="inlineStr"/>
       <c r="J266" t="inlineStr"/>
@@ -9196,7 +9196,7 @@
         <v>-61303.7240372</v>
       </c>
       <c r="H267" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I267" t="inlineStr"/>
       <c r="J267" t="inlineStr"/>
@@ -9328,7 +9328,7 @@
         <v>-61086.6399372</v>
       </c>
       <c r="H271" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I271" t="inlineStr"/>
       <c r="J271" t="inlineStr"/>
@@ -9361,7 +9361,7 @@
         <v>-62207.4911372</v>
       </c>
       <c r="H272" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I272" t="inlineStr"/>
       <c r="J272" t="inlineStr"/>
@@ -9394,7 +9394,7 @@
         <v>-61866.7033372</v>
       </c>
       <c r="H273" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I273" t="inlineStr"/>
       <c r="J273" t="inlineStr"/>
@@ -9427,7 +9427,7 @@
         <v>-66410.2045372</v>
       </c>
       <c r="H274" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I274" t="inlineStr"/>
       <c r="J274" t="inlineStr"/>
@@ -9460,7 +9460,7 @@
         <v>-66410.2045372</v>
       </c>
       <c r="H275" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I275" t="inlineStr"/>
       <c r="J275" t="inlineStr"/>
@@ -9493,7 +9493,7 @@
         <v>-66293.9984372</v>
       </c>
       <c r="H276" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I276" t="inlineStr"/>
       <c r="J276" t="inlineStr"/>
@@ -10483,7 +10483,7 @@
         <v>-73304.72424898001</v>
       </c>
       <c r="H306" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I306" t="inlineStr"/>
       <c r="J306" t="inlineStr"/>
@@ -10549,7 +10549,7 @@
         <v>-73632.83724898001</v>
       </c>
       <c r="H308" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I308" t="inlineStr"/>
       <c r="J308" t="inlineStr"/>
@@ -10615,7 +10615,7 @@
         <v>-75468.79330276001</v>
       </c>
       <c r="H310" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I310" t="inlineStr"/>
       <c r="J310" t="inlineStr"/>
@@ -11044,7 +11044,7 @@
         <v>-85256.50526649</v>
       </c>
       <c r="H323" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I323" t="inlineStr"/>
       <c r="J323" t="inlineStr"/>
@@ -11077,7 +11077,7 @@
         <v>-84937.40956648999</v>
       </c>
       <c r="H324" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I324" t="inlineStr"/>
       <c r="J324" t="inlineStr"/>
@@ -11110,7 +11110,7 @@
         <v>-84348.86376648999</v>
       </c>
       <c r="H325" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I325" t="inlineStr"/>
       <c r="J325" t="inlineStr"/>
@@ -11143,7 +11143,7 @@
         <v>-77498.13453711999</v>
       </c>
       <c r="H326" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I326" t="inlineStr"/>
       <c r="J326" t="inlineStr"/>
@@ -11176,7 +11176,7 @@
         <v>-77957.10323711998</v>
       </c>
       <c r="H327" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I327" t="inlineStr"/>
       <c r="J327" t="inlineStr"/>
@@ -11209,7 +11209,7 @@
         <v>-79647.15393711999</v>
       </c>
       <c r="H328" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I328" t="inlineStr"/>
       <c r="J328" t="inlineStr"/>
@@ -11242,7 +11242,7 @@
         <v>-79867.91473711999</v>
       </c>
       <c r="H329" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I329" t="inlineStr"/>
       <c r="J329" t="inlineStr"/>
@@ -11275,7 +11275,7 @@
         <v>-79867.91473711999</v>
       </c>
       <c r="H330" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I330" t="inlineStr"/>
       <c r="J330" t="inlineStr"/>
@@ -11308,7 +11308,7 @@
         <v>-80193.04273711999</v>
       </c>
       <c r="H331" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I331" t="inlineStr"/>
       <c r="J331" t="inlineStr"/>
@@ -11341,7 +11341,7 @@
         <v>-82904.91913711998</v>
       </c>
       <c r="H332" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I332" t="inlineStr"/>
       <c r="J332" t="inlineStr"/>
@@ -11374,7 +11374,7 @@
         <v>-82935.16873711998</v>
       </c>
       <c r="H333" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I333" t="inlineStr"/>
       <c r="J333" t="inlineStr"/>
@@ -11407,7 +11407,7 @@
         <v>-82883.15313711998</v>
       </c>
       <c r="H334" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I334" t="inlineStr"/>
       <c r="J334" t="inlineStr"/>
@@ -11473,7 +11473,7 @@
         <v>-84045.10883711997</v>
       </c>
       <c r="H336" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I336" t="inlineStr"/>
       <c r="J336" t="inlineStr"/>
@@ -11572,7 +11572,7 @@
         <v>-84839.17393711997</v>
       </c>
       <c r="H339" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I339" t="inlineStr"/>
       <c r="J339" t="inlineStr"/>
@@ -11605,7 +11605,7 @@
         <v>-85225.47773711996</v>
       </c>
       <c r="H340" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I340" t="inlineStr"/>
       <c r="J340" t="inlineStr"/>
@@ -11638,7 +11638,7 @@
         <v>-85225.47773711996</v>
       </c>
       <c r="H341" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I341" t="inlineStr"/>
       <c r="J341" t="inlineStr"/>
@@ -11671,7 +11671,7 @@
         <v>-83215.47773711996</v>
       </c>
       <c r="H342" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I342" t="inlineStr"/>
       <c r="J342" t="inlineStr"/>
@@ -11704,7 +11704,7 @@
         <v>-84521.47913711995</v>
       </c>
       <c r="H343" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I343" t="inlineStr"/>
       <c r="J343" t="inlineStr"/>
@@ -11737,7 +11737,7 @@
         <v>-84521.47913711995</v>
       </c>
       <c r="H344" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I344" t="inlineStr"/>
       <c r="J344" t="inlineStr"/>
@@ -11770,7 +11770,7 @@
         <v>-86101.86977695995</v>
       </c>
       <c r="H345" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I345" t="inlineStr"/>
       <c r="J345" t="inlineStr"/>
@@ -11803,7 +11803,7 @@
         <v>-86101.86977695995</v>
       </c>
       <c r="H346" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I346" t="inlineStr"/>
       <c r="J346" t="inlineStr"/>
@@ -11836,7 +11836,7 @@
         <v>-86101.86977695995</v>
       </c>
       <c r="H347" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I347" t="inlineStr"/>
       <c r="J347" t="inlineStr"/>
@@ -11869,7 +11869,7 @@
         <v>-85235.88517695996</v>
       </c>
       <c r="H348" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I348" t="inlineStr"/>
       <c r="J348" t="inlineStr"/>
@@ -11902,7 +11902,7 @@
         <v>-84485.88517695996</v>
       </c>
       <c r="H349" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I349" t="inlineStr"/>
       <c r="J349" t="inlineStr"/>
@@ -11935,7 +11935,7 @@
         <v>-84994.32907695996</v>
       </c>
       <c r="H350" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I350" t="inlineStr"/>
       <c r="J350" t="inlineStr"/>
@@ -11968,7 +11968,7 @@
         <v>-84262.61937695995</v>
       </c>
       <c r="H351" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I351" t="inlineStr"/>
       <c r="J351" t="inlineStr"/>
@@ -12001,7 +12001,7 @@
         <v>-84757.35327695996</v>
       </c>
       <c r="H352" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I352" t="inlineStr"/>
       <c r="J352" t="inlineStr"/>
@@ -12034,7 +12034,7 @@
         <v>-86180.65707695995</v>
       </c>
       <c r="H353" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I353" t="inlineStr"/>
       <c r="J353" t="inlineStr"/>
@@ -12067,7 +12067,7 @@
         <v>-86889.80520158994</v>
       </c>
       <c r="H354" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I354" t="inlineStr"/>
       <c r="J354" t="inlineStr"/>
@@ -12100,7 +12100,7 @@
         <v>-89611.05030158994</v>
       </c>
       <c r="H355" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I355" t="inlineStr"/>
       <c r="J355" t="inlineStr"/>
@@ -12661,17 +12661,11 @@
         <v>-96825.59400158993</v>
       </c>
       <c r="H372" t="n">
-        <v>1</v>
-      </c>
-      <c r="I372" t="n">
-        <v>624</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I372" t="inlineStr"/>
       <c r="J372" t="inlineStr"/>
-      <c r="K372" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
+      <c r="K372" t="inlineStr"/>
       <c r="L372" t="n">
         <v>1</v>
       </c>
@@ -12704,11 +12698,7 @@
       </c>
       <c r="I373" t="inlineStr"/>
       <c r="J373" t="inlineStr"/>
-      <c r="K373" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K373" t="inlineStr"/>
       <c r="L373" t="n">
         <v>1</v>
       </c>
@@ -12741,11 +12731,7 @@
       </c>
       <c r="I374" t="inlineStr"/>
       <c r="J374" t="inlineStr"/>
-      <c r="K374" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K374" t="inlineStr"/>
       <c r="L374" t="n">
         <v>1</v>
       </c>
@@ -12778,11 +12764,7 @@
       </c>
       <c r="I375" t="inlineStr"/>
       <c r="J375" t="inlineStr"/>
-      <c r="K375" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K375" t="inlineStr"/>
       <c r="L375" t="n">
         <v>1</v>
       </c>
@@ -12815,11 +12797,7 @@
       </c>
       <c r="I376" t="inlineStr"/>
       <c r="J376" t="inlineStr"/>
-      <c r="K376" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K376" t="inlineStr"/>
       <c r="L376" t="n">
         <v>1</v>
       </c>
@@ -12852,11 +12830,7 @@
       </c>
       <c r="I377" t="inlineStr"/>
       <c r="J377" t="inlineStr"/>
-      <c r="K377" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K377" t="inlineStr"/>
       <c r="L377" t="n">
         <v>1</v>
       </c>
@@ -12889,11 +12863,7 @@
       </c>
       <c r="I378" t="inlineStr"/>
       <c r="J378" t="inlineStr"/>
-      <c r="K378" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K378" t="inlineStr"/>
       <c r="L378" t="n">
         <v>1</v>
       </c>
@@ -12926,11 +12896,7 @@
       </c>
       <c r="I379" t="inlineStr"/>
       <c r="J379" t="inlineStr"/>
-      <c r="K379" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K379" t="inlineStr"/>
       <c r="L379" t="n">
         <v>1</v>
       </c>
@@ -12963,11 +12929,7 @@
       </c>
       <c r="I380" t="inlineStr"/>
       <c r="J380" t="inlineStr"/>
-      <c r="K380" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K380" t="inlineStr"/>
       <c r="L380" t="n">
         <v>1</v>
       </c>
@@ -13000,11 +12962,7 @@
       </c>
       <c r="I381" t="inlineStr"/>
       <c r="J381" t="inlineStr"/>
-      <c r="K381" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K381" t="inlineStr"/>
       <c r="L381" t="n">
         <v>1</v>
       </c>
@@ -13037,11 +12995,7 @@
       </c>
       <c r="I382" t="inlineStr"/>
       <c r="J382" t="inlineStr"/>
-      <c r="K382" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K382" t="inlineStr"/>
       <c r="L382" t="n">
         <v>1</v>
       </c>
@@ -13074,11 +13028,7 @@
       </c>
       <c r="I383" t="inlineStr"/>
       <c r="J383" t="inlineStr"/>
-      <c r="K383" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K383" t="inlineStr"/>
       <c r="L383" t="n">
         <v>1</v>
       </c>
@@ -13111,11 +13061,7 @@
       </c>
       <c r="I384" t="inlineStr"/>
       <c r="J384" t="inlineStr"/>
-      <c r="K384" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K384" t="inlineStr"/>
       <c r="L384" t="n">
         <v>1</v>
       </c>
@@ -13148,11 +13094,7 @@
       </c>
       <c r="I385" t="inlineStr"/>
       <c r="J385" t="inlineStr"/>
-      <c r="K385" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K385" t="inlineStr"/>
       <c r="L385" t="n">
         <v>1</v>
       </c>
@@ -13185,11 +13127,7 @@
       </c>
       <c r="I386" t="inlineStr"/>
       <c r="J386" t="inlineStr"/>
-      <c r="K386" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K386" t="inlineStr"/>
       <c r="L386" t="n">
         <v>1</v>
       </c>
@@ -13222,11 +13160,7 @@
       </c>
       <c r="I387" t="inlineStr"/>
       <c r="J387" t="inlineStr"/>
-      <c r="K387" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K387" t="inlineStr"/>
       <c r="L387" t="n">
         <v>1</v>
       </c>
@@ -13259,11 +13193,7 @@
       </c>
       <c r="I388" t="inlineStr"/>
       <c r="J388" t="inlineStr"/>
-      <c r="K388" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K388" t="inlineStr"/>
       <c r="L388" t="n">
         <v>1</v>
       </c>
@@ -13296,11 +13226,7 @@
       </c>
       <c r="I389" t="inlineStr"/>
       <c r="J389" t="inlineStr"/>
-      <c r="K389" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K389" t="inlineStr"/>
       <c r="L389" t="n">
         <v>1</v>
       </c>
@@ -13333,11 +13259,7 @@
       </c>
       <c r="I390" t="inlineStr"/>
       <c r="J390" t="inlineStr"/>
-      <c r="K390" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K390" t="inlineStr"/>
       <c r="L390" t="n">
         <v>1</v>
       </c>
@@ -13370,11 +13292,7 @@
       </c>
       <c r="I391" t="inlineStr"/>
       <c r="J391" t="inlineStr"/>
-      <c r="K391" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K391" t="inlineStr"/>
       <c r="L391" t="n">
         <v>1</v>
       </c>
@@ -13403,17 +13321,11 @@
         <v>-104468.2348015899</v>
       </c>
       <c r="H392" t="n">
-        <v>1</v>
-      </c>
-      <c r="I392" t="n">
-        <v>622.6</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I392" t="inlineStr"/>
       <c r="J392" t="inlineStr"/>
-      <c r="K392" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K392" t="inlineStr"/>
       <c r="L392" t="n">
         <v>1</v>
       </c>
@@ -13446,11 +13358,7 @@
       </c>
       <c r="I393" t="inlineStr"/>
       <c r="J393" t="inlineStr"/>
-      <c r="K393" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K393" t="inlineStr"/>
       <c r="L393" t="n">
         <v>1</v>
       </c>
@@ -13483,11 +13391,7 @@
       </c>
       <c r="I394" t="inlineStr"/>
       <c r="J394" t="inlineStr"/>
-      <c r="K394" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K394" t="inlineStr"/>
       <c r="L394" t="n">
         <v>1</v>
       </c>
@@ -13520,11 +13424,7 @@
       </c>
       <c r="I395" t="inlineStr"/>
       <c r="J395" t="inlineStr"/>
-      <c r="K395" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K395" t="inlineStr"/>
       <c r="L395" t="n">
         <v>1</v>
       </c>
@@ -13557,11 +13457,7 @@
       </c>
       <c r="I396" t="inlineStr"/>
       <c r="J396" t="inlineStr"/>
-      <c r="K396" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K396" t="inlineStr"/>
       <c r="L396" t="n">
         <v>1</v>
       </c>
@@ -13594,11 +13490,7 @@
       </c>
       <c r="I397" t="inlineStr"/>
       <c r="J397" t="inlineStr"/>
-      <c r="K397" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K397" t="inlineStr"/>
       <c r="L397" t="n">
         <v>1</v>
       </c>
@@ -13631,11 +13523,7 @@
       </c>
       <c r="I398" t="inlineStr"/>
       <c r="J398" t="inlineStr"/>
-      <c r="K398" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K398" t="inlineStr"/>
       <c r="L398" t="n">
         <v>1</v>
       </c>
@@ -13668,11 +13556,7 @@
       </c>
       <c r="I399" t="inlineStr"/>
       <c r="J399" t="inlineStr"/>
-      <c r="K399" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K399" t="inlineStr"/>
       <c r="L399" t="n">
         <v>1</v>
       </c>
@@ -13705,11 +13589,7 @@
       </c>
       <c r="I400" t="inlineStr"/>
       <c r="J400" t="inlineStr"/>
-      <c r="K400" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K400" t="inlineStr"/>
       <c r="L400" t="n">
         <v>1</v>
       </c>
@@ -13742,11 +13622,7 @@
       </c>
       <c r="I401" t="inlineStr"/>
       <c r="J401" t="inlineStr"/>
-      <c r="K401" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K401" t="inlineStr"/>
       <c r="L401" t="n">
         <v>1</v>
       </c>
@@ -13779,11 +13655,7 @@
       </c>
       <c r="I402" t="inlineStr"/>
       <c r="J402" t="inlineStr"/>
-      <c r="K402" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K402" t="inlineStr"/>
       <c r="L402" t="n">
         <v>1</v>
       </c>
@@ -13816,11 +13688,7 @@
       </c>
       <c r="I403" t="inlineStr"/>
       <c r="J403" t="inlineStr"/>
-      <c r="K403" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K403" t="inlineStr"/>
       <c r="L403" t="n">
         <v>1</v>
       </c>
@@ -13849,17 +13717,11 @@
         <v>-101689.9136015899</v>
       </c>
       <c r="H404" t="n">
-        <v>1</v>
-      </c>
-      <c r="I404" t="n">
-        <v>615</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I404" t="inlineStr"/>
       <c r="J404" t="inlineStr"/>
-      <c r="K404" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K404" t="inlineStr"/>
       <c r="L404" t="n">
         <v>1</v>
       </c>
@@ -13888,17 +13750,11 @@
         <v>-101664.9136015899</v>
       </c>
       <c r="H405" t="n">
-        <v>1</v>
-      </c>
-      <c r="I405" t="n">
-        <v>615.1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I405" t="inlineStr"/>
       <c r="J405" t="inlineStr"/>
-      <c r="K405" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K405" t="inlineStr"/>
       <c r="L405" t="n">
         <v>1</v>
       </c>
@@ -13927,17 +13783,11 @@
         <v>-103366.6606015899</v>
       </c>
       <c r="H406" t="n">
-        <v>1</v>
-      </c>
-      <c r="I406" t="n">
-        <v>621.5</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I406" t="inlineStr"/>
       <c r="J406" t="inlineStr"/>
-      <c r="K406" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K406" t="inlineStr"/>
       <c r="L406" t="n">
         <v>1</v>
       </c>
@@ -13970,11 +13820,7 @@
       </c>
       <c r="I407" t="inlineStr"/>
       <c r="J407" t="inlineStr"/>
-      <c r="K407" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K407" t="inlineStr"/>
       <c r="L407" t="n">
         <v>1</v>
       </c>
@@ -14007,11 +13853,7 @@
       </c>
       <c r="I408" t="inlineStr"/>
       <c r="J408" t="inlineStr"/>
-      <c r="K408" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K408" t="inlineStr"/>
       <c r="L408" t="n">
         <v>1</v>
       </c>
@@ -14044,11 +13886,7 @@
       </c>
       <c r="I409" t="inlineStr"/>
       <c r="J409" t="inlineStr"/>
-      <c r="K409" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K409" t="inlineStr"/>
       <c r="L409" t="n">
         <v>1</v>
       </c>
@@ -14081,11 +13919,7 @@
       </c>
       <c r="I410" t="inlineStr"/>
       <c r="J410" t="inlineStr"/>
-      <c r="K410" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K410" t="inlineStr"/>
       <c r="L410" t="n">
         <v>1</v>
       </c>
@@ -14118,11 +13952,7 @@
       </c>
       <c r="I411" t="inlineStr"/>
       <c r="J411" t="inlineStr"/>
-      <c r="K411" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K411" t="inlineStr"/>
       <c r="L411" t="n">
         <v>1</v>
       </c>
@@ -14155,11 +13985,7 @@
       </c>
       <c r="I412" t="inlineStr"/>
       <c r="J412" t="inlineStr"/>
-      <c r="K412" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K412" t="inlineStr"/>
       <c r="L412" t="n">
         <v>1</v>
       </c>
@@ -14192,11 +14018,7 @@
       </c>
       <c r="I413" t="inlineStr"/>
       <c r="J413" t="inlineStr"/>
-      <c r="K413" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K413" t="inlineStr"/>
       <c r="L413" t="n">
         <v>1</v>
       </c>
@@ -14229,11 +14051,7 @@
       </c>
       <c r="I414" t="inlineStr"/>
       <c r="J414" t="inlineStr"/>
-      <c r="K414" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K414" t="inlineStr"/>
       <c r="L414" t="n">
         <v>1</v>
       </c>
@@ -14266,11 +14084,7 @@
       </c>
       <c r="I415" t="inlineStr"/>
       <c r="J415" t="inlineStr"/>
-      <c r="K415" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K415" t="inlineStr"/>
       <c r="L415" t="n">
         <v>1</v>
       </c>
@@ -14303,11 +14117,7 @@
       </c>
       <c r="I416" t="inlineStr"/>
       <c r="J416" t="inlineStr"/>
-      <c r="K416" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K416" t="inlineStr"/>
       <c r="L416" t="n">
         <v>1</v>
       </c>
@@ -14340,11 +14150,7 @@
       </c>
       <c r="I417" t="inlineStr"/>
       <c r="J417" t="inlineStr"/>
-      <c r="K417" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K417" t="inlineStr"/>
       <c r="L417" t="n">
         <v>1</v>
       </c>
@@ -14377,11 +14183,7 @@
       </c>
       <c r="I418" t="inlineStr"/>
       <c r="J418" t="inlineStr"/>
-      <c r="K418" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K418" t="inlineStr"/>
       <c r="L418" t="n">
         <v>1</v>
       </c>
@@ -14414,11 +14216,7 @@
       </c>
       <c r="I419" t="inlineStr"/>
       <c r="J419" t="inlineStr"/>
-      <c r="K419" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K419" t="inlineStr"/>
       <c r="L419" t="n">
         <v>1</v>
       </c>
@@ -14451,11 +14249,7 @@
       </c>
       <c r="I420" t="inlineStr"/>
       <c r="J420" t="inlineStr"/>
-      <c r="K420" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K420" t="inlineStr"/>
       <c r="L420" t="n">
         <v>1</v>
       </c>
@@ -14488,11 +14282,7 @@
       </c>
       <c r="I421" t="inlineStr"/>
       <c r="J421" t="inlineStr"/>
-      <c r="K421" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K421" t="inlineStr"/>
       <c r="L421" t="n">
         <v>1</v>
       </c>
@@ -14525,11 +14315,7 @@
       </c>
       <c r="I422" t="inlineStr"/>
       <c r="J422" t="inlineStr"/>
-      <c r="K422" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K422" t="inlineStr"/>
       <c r="L422" t="n">
         <v>1</v>
       </c>
@@ -14562,11 +14348,7 @@
       </c>
       <c r="I423" t="inlineStr"/>
       <c r="J423" t="inlineStr"/>
-      <c r="K423" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K423" t="inlineStr"/>
       <c r="L423" t="n">
         <v>1</v>
       </c>
@@ -14599,11 +14381,7 @@
       </c>
       <c r="I424" t="inlineStr"/>
       <c r="J424" t="inlineStr"/>
-      <c r="K424" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K424" t="inlineStr"/>
       <c r="L424" t="n">
         <v>1</v>
       </c>
@@ -14636,11 +14414,7 @@
       </c>
       <c r="I425" t="inlineStr"/>
       <c r="J425" t="inlineStr"/>
-      <c r="K425" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K425" t="inlineStr"/>
       <c r="L425" t="n">
         <v>1</v>
       </c>
@@ -14673,11 +14447,7 @@
       </c>
       <c r="I426" t="inlineStr"/>
       <c r="J426" t="inlineStr"/>
-      <c r="K426" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K426" t="inlineStr"/>
       <c r="L426" t="n">
         <v>1</v>
       </c>
@@ -14710,11 +14480,7 @@
       </c>
       <c r="I427" t="inlineStr"/>
       <c r="J427" t="inlineStr"/>
-      <c r="K427" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K427" t="inlineStr"/>
       <c r="L427" t="n">
         <v>1</v>
       </c>
@@ -14747,11 +14513,7 @@
       </c>
       <c r="I428" t="inlineStr"/>
       <c r="J428" t="inlineStr"/>
-      <c r="K428" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K428" t="inlineStr"/>
       <c r="L428" t="n">
         <v>1</v>
       </c>
@@ -14784,11 +14546,7 @@
       </c>
       <c r="I429" t="inlineStr"/>
       <c r="J429" t="inlineStr"/>
-      <c r="K429" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K429" t="inlineStr"/>
       <c r="L429" t="n">
         <v>1</v>
       </c>
@@ -14821,11 +14579,7 @@
       </c>
       <c r="I430" t="inlineStr"/>
       <c r="J430" t="inlineStr"/>
-      <c r="K430" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K430" t="inlineStr"/>
       <c r="L430" t="n">
         <v>1</v>
       </c>
@@ -14858,11 +14612,7 @@
       </c>
       <c r="I431" t="inlineStr"/>
       <c r="J431" t="inlineStr"/>
-      <c r="K431" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K431" t="inlineStr"/>
       <c r="L431" t="n">
         <v>1</v>
       </c>
@@ -14895,11 +14645,7 @@
       </c>
       <c r="I432" t="inlineStr"/>
       <c r="J432" t="inlineStr"/>
-      <c r="K432" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K432" t="inlineStr"/>
       <c r="L432" t="n">
         <v>1</v>
       </c>
@@ -14932,11 +14678,7 @@
       </c>
       <c r="I433" t="inlineStr"/>
       <c r="J433" t="inlineStr"/>
-      <c r="K433" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K433" t="inlineStr"/>
       <c r="L433" t="n">
         <v>1</v>
       </c>
@@ -14969,11 +14711,7 @@
       </c>
       <c r="I434" t="inlineStr"/>
       <c r="J434" t="inlineStr"/>
-      <c r="K434" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K434" t="inlineStr"/>
       <c r="L434" t="n">
         <v>1</v>
       </c>
@@ -15006,11 +14744,7 @@
       </c>
       <c r="I435" t="inlineStr"/>
       <c r="J435" t="inlineStr"/>
-      <c r="K435" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K435" t="inlineStr"/>
       <c r="L435" t="n">
         <v>1</v>
       </c>
@@ -15043,11 +14777,7 @@
       </c>
       <c r="I436" t="inlineStr"/>
       <c r="J436" t="inlineStr"/>
-      <c r="K436" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K436" t="inlineStr"/>
       <c r="L436" t="n">
         <v>1</v>
       </c>
@@ -15080,11 +14810,7 @@
       </c>
       <c r="I437" t="inlineStr"/>
       <c r="J437" t="inlineStr"/>
-      <c r="K437" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K437" t="inlineStr"/>
       <c r="L437" t="n">
         <v>1</v>
       </c>
@@ -15117,11 +14843,7 @@
       </c>
       <c r="I438" t="inlineStr"/>
       <c r="J438" t="inlineStr"/>
-      <c r="K438" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K438" t="inlineStr"/>
       <c r="L438" t="n">
         <v>1</v>
       </c>
@@ -15154,11 +14876,7 @@
       </c>
       <c r="I439" t="inlineStr"/>
       <c r="J439" t="inlineStr"/>
-      <c r="K439" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K439" t="inlineStr"/>
       <c r="L439" t="n">
         <v>1</v>
       </c>
@@ -15191,11 +14909,7 @@
       </c>
       <c r="I440" t="inlineStr"/>
       <c r="J440" t="inlineStr"/>
-      <c r="K440" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K440" t="inlineStr"/>
       <c r="L440" t="n">
         <v>1</v>
       </c>
@@ -15228,11 +14942,7 @@
       </c>
       <c r="I441" t="inlineStr"/>
       <c r="J441" t="inlineStr"/>
-      <c r="K441" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K441" t="inlineStr"/>
       <c r="L441" t="n">
         <v>1</v>
       </c>
@@ -15265,11 +14975,7 @@
       </c>
       <c r="I442" t="inlineStr"/>
       <c r="J442" t="inlineStr"/>
-      <c r="K442" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K442" t="inlineStr"/>
       <c r="L442" t="n">
         <v>1</v>
       </c>
@@ -15302,11 +15008,7 @@
       </c>
       <c r="I443" t="inlineStr"/>
       <c r="J443" t="inlineStr"/>
-      <c r="K443" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K443" t="inlineStr"/>
       <c r="L443" t="n">
         <v>1</v>
       </c>
@@ -15339,11 +15041,7 @@
       </c>
       <c r="I444" t="inlineStr"/>
       <c r="J444" t="inlineStr"/>
-      <c r="K444" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K444" t="inlineStr"/>
       <c r="L444" t="n">
         <v>1</v>
       </c>
@@ -15376,11 +15074,7 @@
       </c>
       <c r="I445" t="inlineStr"/>
       <c r="J445" t="inlineStr"/>
-      <c r="K445" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K445" t="inlineStr"/>
       <c r="L445" t="n">
         <v>1</v>
       </c>
@@ -15413,11 +15107,7 @@
       </c>
       <c r="I446" t="inlineStr"/>
       <c r="J446" t="inlineStr"/>
-      <c r="K446" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K446" t="inlineStr"/>
       <c r="L446" t="n">
         <v>1</v>
       </c>
@@ -15450,11 +15140,7 @@
       </c>
       <c r="I447" t="inlineStr"/>
       <c r="J447" t="inlineStr"/>
-      <c r="K447" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K447" t="inlineStr"/>
       <c r="L447" t="n">
         <v>1</v>
       </c>
@@ -15487,11 +15173,7 @@
       </c>
       <c r="I448" t="inlineStr"/>
       <c r="J448" t="inlineStr"/>
-      <c r="K448" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K448" t="inlineStr"/>
       <c r="L448" t="n">
         <v>1</v>
       </c>
@@ -15524,11 +15206,7 @@
       </c>
       <c r="I449" t="inlineStr"/>
       <c r="J449" t="inlineStr"/>
-      <c r="K449" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K449" t="inlineStr"/>
       <c r="L449" t="n">
         <v>1</v>
       </c>
@@ -15561,11 +15239,7 @@
       </c>
       <c r="I450" t="inlineStr"/>
       <c r="J450" t="inlineStr"/>
-      <c r="K450" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K450" t="inlineStr"/>
       <c r="L450" t="n">
         <v>1</v>
       </c>
@@ -15598,11 +15272,7 @@
       </c>
       <c r="I451" t="inlineStr"/>
       <c r="J451" t="inlineStr"/>
-      <c r="K451" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K451" t="inlineStr"/>
       <c r="L451" t="n">
         <v>1</v>
       </c>
@@ -15635,11 +15305,7 @@
       </c>
       <c r="I452" t="inlineStr"/>
       <c r="J452" t="inlineStr"/>
-      <c r="K452" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K452" t="inlineStr"/>
       <c r="L452" t="n">
         <v>1</v>
       </c>
@@ -15672,11 +15338,7 @@
       </c>
       <c r="I453" t="inlineStr"/>
       <c r="J453" t="inlineStr"/>
-      <c r="K453" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K453" t="inlineStr"/>
       <c r="L453" t="n">
         <v>1</v>
       </c>
@@ -15705,17 +15367,11 @@
         <v>-83941.2065015899</v>
       </c>
       <c r="H454" t="n">
-        <v>1</v>
-      </c>
-      <c r="I454" t="n">
-        <v>614.2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I454" t="inlineStr"/>
       <c r="J454" t="inlineStr"/>
-      <c r="K454" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K454" t="inlineStr"/>
       <c r="L454" t="n">
         <v>1</v>
       </c>
@@ -15744,17 +15400,11 @@
         <v>-85379.39450158989</v>
       </c>
       <c r="H455" t="n">
-        <v>1</v>
-      </c>
-      <c r="I455" t="n">
-        <v>613.5</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I455" t="inlineStr"/>
       <c r="J455" t="inlineStr"/>
-      <c r="K455" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K455" t="inlineStr"/>
       <c r="L455" t="n">
         <v>1</v>
       </c>
@@ -15791,7 +15441,7 @@
       <c r="J456" t="inlineStr"/>
       <c r="K456" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 체결</t>
         </is>
       </c>
       <c r="L456" t="n">
